--- a/Resources/survey_results_1.xlsx
+++ b/Resources/survey_results_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pam/class/HW/23 Project4 - Veggie/veggie-tales/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041F58A7-F00F-3248-A07F-F0F95EF79EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8384A581-8FD1-2643-B40F-080D0F0EF7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49720" yWindow="-4400" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="849">
   <si>
     <t>ID</t>
   </si>
@@ -820,9 +820,6 @@
     <t>Sauteed;Boiled;</t>
   </si>
   <si>
-    <t xml:space="preserve">Bananas </t>
-  </si>
-  <si>
     <t>Chicago PD</t>
   </si>
   <si>
@@ -2446,9 +2443,6 @@
     <t>Corn;Broccoli;</t>
   </si>
   <si>
-    <t xml:space="preserve">Blueberry </t>
-  </si>
-  <si>
     <t xml:space="preserve">Seinfeld </t>
   </si>
   <si>
@@ -2515,9 +2509,6 @@
     <t xml:space="preserve">Blueberries, cherries, strawberries </t>
   </si>
   <si>
-    <t xml:space="preserve">Banana, watermelon, apple </t>
-  </si>
-  <si>
     <t>Watermelon, Strawberries, Banana</t>
   </si>
   <si>
@@ -2576,6 +2567,12 @@
   </si>
   <si>
     <t>Bananna's, apples, oranges</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Banana, watermelon, apple</t>
   </si>
 </sst>
 </file>
@@ -2583,7 +2580,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2623,7 +2620,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -2674,10 +2671,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3020,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L146" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q178" sqref="Q178"/>
+    <sheetView tabSelected="1" topLeftCell="L36" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3180,7 +3177,7 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3474,7 +3471,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3572,7 +3569,7 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3621,7 +3618,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3719,7 +3716,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3964,7 +3961,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -4503,7 +4500,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4993,7 +4990,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -5091,7 +5088,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -5336,7 +5333,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
-        <v>264</v>
+        <v>513</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -5366,26 +5363,26 @@
         <v>21</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L48" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>222</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5415,26 +5412,26 @@
         <v>21</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L49" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>172</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -5464,26 +5461,26 @@
         <v>21</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L50" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="N50" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -5513,26 +5510,26 @@
         <v>21</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -5562,26 +5559,26 @@
         <v>21</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>75</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -5611,13 +5608,13 @@
         <v>21</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>163</v>
@@ -5630,7 +5627,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -5660,16 +5657,16 @@
         <v>21</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>126</v>
@@ -5679,7 +5676,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5709,26 +5706,26 @@
         <v>21</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L55" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>70</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -5746,38 +5743,38 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L56" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>243</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -5807,26 +5804,26 @@
         <v>21</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5862,20 +5859,20 @@
         <v>46</v>
       </c>
       <c r="L58" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="N58" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>193</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5905,26 +5902,26 @@
         <v>21</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>251</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>222</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5954,26 +5951,26 @@
         <v>21</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L60" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="N60" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>122</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6009,20 +6006,20 @@
         <v>38</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>135</v>
       </c>
       <c r="N61" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O61" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -6046,32 +6043,32 @@
         <v>19</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L62" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6101,26 +6098,26 @@
         <v>21</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="O63" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -6144,19 +6141,19 @@
         <v>19</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>126</v>
@@ -6169,7 +6166,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6199,26 +6196,26 @@
         <v>21</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L65" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -6248,26 +6245,26 @@
         <v>21</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L66" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="N66" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -6297,7 +6294,7 @@
         <v>21</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>46</v>
@@ -6306,7 +6303,7 @@
         <v>139</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>160</v>
@@ -6316,7 +6313,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -6352,20 +6349,20 @@
         <v>32</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>135</v>
       </c>
       <c r="N68" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -6395,26 +6392,26 @@
         <v>21</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L69" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O69" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -6444,26 +6441,26 @@
         <v>21</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L70" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="O70" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -6493,26 +6490,26 @@
         <v>21</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L71" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="N71" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -6542,16 +6539,16 @@
         <v>21</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L72" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>198</v>
@@ -6561,7 +6558,7 @@
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -6591,26 +6588,26 @@
         <v>21</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L73" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="O73" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -6640,26 +6637,26 @@
         <v>21</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>188</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -6689,26 +6686,26 @@
         <v>21</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L75" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="N75" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="N75" s="2" t="s">
+      <c r="O75" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -6738,26 +6735,26 @@
         <v>21</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L76" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="M76" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>135</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -6787,26 +6784,26 @@
         <v>21</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L77" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>172</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -6836,26 +6833,26 @@
         <v>21</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -6885,26 +6882,26 @@
         <v>21</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>153</v>
       </c>
       <c r="N79" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -6934,26 +6931,26 @@
         <v>21</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="M80" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6983,26 +6980,26 @@
         <v>21</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="L81" s="2" t="s">
+      <c r="M81" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="M81" s="2" t="s">
+      <c r="N81" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -7032,13 +7029,13 @@
         <v>21</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>135</v>
@@ -7051,7 +7048,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -7081,26 +7078,26 @@
         <v>21</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L83" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M83" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="O83" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -7130,26 +7127,26 @@
         <v>21</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L84" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="M84" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>216</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -7185,10 +7182,10 @@
         <v>46</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>62</v>
@@ -7198,7 +7195,7 @@
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -7228,26 +7225,26 @@
         <v>100</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L86" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="M86" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="M86" s="2" t="s">
+      <c r="N86" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="O86" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -7283,20 +7280,20 @@
         <v>32</v>
       </c>
       <c r="L87" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M87" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="M87" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="N87" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>259</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -7326,26 +7323,26 @@
         <v>100</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N88" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="O88" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -7381,20 +7378,20 @@
         <v>46</v>
       </c>
       <c r="L89" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="M89" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="M89" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="N89" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -7424,26 +7421,26 @@
         <v>21</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L90" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="M90" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="N90" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="O90" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -7473,26 +7470,26 @@
         <v>21</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L91" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="M91" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="N91" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="O91" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -7522,26 +7519,26 @@
         <v>21</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>159</v>
       </c>
       <c r="N92" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="O92" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -7571,26 +7568,26 @@
         <v>21</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>140</v>
       </c>
       <c r="N93" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O93" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -7626,20 +7623,20 @@
         <v>32</v>
       </c>
       <c r="L94" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="N94" s="2" t="s">
+      <c r="O94" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -7669,26 +7666,26 @@
         <v>21</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L95" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="N95" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -7718,26 +7715,26 @@
         <v>21</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L96" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="M96" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="M96" s="2" t="s">
+      <c r="N96" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -7764,29 +7761,29 @@
         <v>20</v>
       </c>
       <c r="I97" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L97" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M97" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="M97" s="2" t="s">
+      <c r="N97" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="O97" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -7816,26 +7813,26 @@
         <v>100</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L98" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="M98" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="M98" s="2" t="s">
+      <c r="N98" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>172</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -7865,26 +7862,26 @@
         <v>21</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L99" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M99" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="N99" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>172</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -7914,7 +7911,7 @@
         <v>21</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>38</v>
@@ -7926,14 +7923,14 @@
         <v>215</v>
       </c>
       <c r="N100" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="O100" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -7963,26 +7960,26 @@
         <v>21</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L101" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M101" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="N101" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="O101" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -8012,26 +8009,26 @@
         <v>21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>171</v>
       </c>
       <c r="N102" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="O102" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -8061,26 +8058,26 @@
         <v>21</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L103" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N103" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -8110,26 +8107,26 @@
         <v>21</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L104" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="O104" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -8159,26 +8156,26 @@
         <v>21</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L105" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="M105" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="N105" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="N105" s="2" t="s">
-        <v>522</v>
-      </c>
       <c r="O105" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -8208,26 +8205,26 @@
         <v>21</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L106" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="M106" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="M106" s="2" t="s">
+      <c r="N106" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="O106" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -8257,26 +8254,26 @@
         <v>21</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L107" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="M107" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="M107" s="2" t="s">
+      <c r="N107" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="O107" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -8306,26 +8303,26 @@
         <v>21</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -8355,26 +8352,26 @@
         <v>21</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L109" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="M109" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="M109" s="2" t="s">
+      <c r="N109" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -8404,26 +8401,26 @@
         <v>21</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L110" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="M110" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="N110" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="O110" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -8453,26 +8450,26 @@
         <v>21</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L111" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="M111" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="M111" s="2" t="s">
+      <c r="N111" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="N111" s="2" t="s">
+      <c r="O111" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -8496,32 +8493,32 @@
         <v>19</v>
       </c>
       <c r="H112" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="J112" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L112" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="M112" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="M112" s="2" t="s">
+      <c r="N112" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="O112" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -8548,7 +8545,7 @@
         <v>20</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>241</v>
@@ -8557,20 +8554,20 @@
         <v>46</v>
       </c>
       <c r="L113" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="M113" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="M113" s="2" t="s">
+      <c r="N113" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -8600,26 +8597,26 @@
         <v>21</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N114" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="O114" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -8649,26 +8646,26 @@
         <v>21</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L115" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="M115" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="M115" s="2" t="s">
+      <c r="N115" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="N115" s="2" t="s">
-        <v>574</v>
-      </c>
       <c r="O115" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -8698,26 +8695,26 @@
         <v>21</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L116" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="M116" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>159</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -8747,26 +8744,26 @@
         <v>21</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L117" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="M117" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="M117" s="2" t="s">
+      <c r="N117" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -8796,26 +8793,26 @@
         <v>21</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -8845,26 +8842,26 @@
         <v>21</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>103</v>
       </c>
       <c r="N119" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="O119" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -8900,20 +8897,20 @@
         <v>32</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>130</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>105</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -8949,20 +8946,20 @@
         <v>38</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>199</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -8992,26 +8989,26 @@
         <v>21</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L122" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="M122" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="M122" s="2" t="s">
+      <c r="N122" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="O122" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -9041,26 +9038,26 @@
         <v>21</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L123" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="M123" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="M123" s="2" t="s">
+      <c r="N123" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="N123" s="2" t="s">
-        <v>604</v>
-      </c>
       <c r="O123" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -9090,26 +9087,26 @@
         <v>21</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>231</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -9139,26 +9136,26 @@
         <v>21</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L125" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="M125" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="M125" s="2" t="s">
-        <v>610</v>
-      </c>
       <c r="N125" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>122</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
@@ -9188,13 +9185,13 @@
         <v>21</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>103</v>
@@ -9203,11 +9200,11 @@
         <v>49</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -9237,13 +9234,13 @@
         <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>103</v>
@@ -9256,7 +9253,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -9286,13 +9283,13 @@
         <v>21</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>159</v>
@@ -9305,7 +9302,7 @@
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -9341,20 +9338,20 @@
         <v>38</v>
       </c>
       <c r="L129" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="M129" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="M129" s="2" t="s">
+      <c r="N129" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O129" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -9390,20 +9387,20 @@
         <v>32</v>
       </c>
       <c r="L130" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="M130" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="M130" s="2" t="s">
+      <c r="N130" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -9430,29 +9427,29 @@
         <v>20</v>
       </c>
       <c r="I131" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="J131" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L131" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="M131" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="M131" s="2" t="s">
+      <c r="N131" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="N131" s="2" t="s">
+      <c r="O131" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -9482,16 +9479,16 @@
         <v>21</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>126</v>
@@ -9501,7 +9498,7 @@
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
@@ -9537,20 +9534,20 @@
         <v>38</v>
       </c>
       <c r="L133" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N133" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="N133" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -9577,29 +9574,29 @@
         <v>20</v>
       </c>
       <c r="I134" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="J134" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L134" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="N134" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="M134" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="N134" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="O134" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -9629,26 +9626,26 @@
         <v>21</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N135" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="O135" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
@@ -9675,29 +9672,29 @@
         <v>30</v>
       </c>
       <c r="I136" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="J136" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="K136" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L136" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="K136" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="L136" s="2" t="s">
+      <c r="M136" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="N136" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="O136" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
@@ -9733,20 +9730,20 @@
         <v>38</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>103</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -9776,26 +9773,26 @@
         <v>21</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -9825,26 +9822,26 @@
         <v>21</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L139" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="M139" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="M139" s="2" t="s">
+      <c r="N139" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>172</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -9874,26 +9871,26 @@
         <v>21</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L140" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="M140" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="M140" s="2" t="s">
+      <c r="N140" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="N140" s="2" t="s">
+      <c r="O140" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
@@ -9929,20 +9926,20 @@
         <v>38</v>
       </c>
       <c r="L141" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="M141" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="M141" s="2" t="s">
+      <c r="N141" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="N141" s="2" t="s">
+      <c r="O141" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -9972,26 +9969,26 @@
         <v>21</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L142" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="M142" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="M142" s="2" t="s">
+      <c r="N142" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -10027,20 +10024,20 @@
         <v>38</v>
       </c>
       <c r="L143" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="M143" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="M143" s="2" t="s">
+      <c r="N143" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="O143" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="O143" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -10058,7 +10055,7 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>65</v>
@@ -10070,26 +10067,26 @@
         <v>21</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L144" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="M144" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="M144" s="2" t="s">
-        <v>691</v>
-      </c>
       <c r="N144" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -10119,26 +10116,26 @@
         <v>21</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>109</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -10168,26 +10165,26 @@
         <v>21</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L146" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="M146" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="M146" s="2" t="s">
+      <c r="N146" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="O146" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -10217,26 +10214,26 @@
         <v>21</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L147" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="O147" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -10266,26 +10263,26 @@
         <v>21</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L148" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="M148" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="M148" s="2" t="s">
+      <c r="N148" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="N148" s="2" t="s">
+      <c r="O148" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="O148" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -10315,26 +10312,26 @@
         <v>21</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -10364,26 +10361,26 @@
         <v>21</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L150" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="M150" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="N150" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="O150" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="O150" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -10413,26 +10410,26 @@
         <v>21</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L151" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="M151" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="M151" s="2" t="s">
-        <v>719</v>
-      </c>
       <c r="N151" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
@@ -10462,26 +10459,26 @@
         <v>21</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L152" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="M152" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="M152" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>212</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
@@ -10508,29 +10505,29 @@
         <v>233</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L153" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="M153" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="M153" s="2" t="s">
+      <c r="N153" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="N153" s="2" t="s">
-        <v>727</v>
-      </c>
       <c r="O153" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -10557,7 +10554,7 @@
         <v>20</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>124</v>
@@ -10566,20 +10563,20 @@
         <v>46</v>
       </c>
       <c r="L154" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="N154" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="M154" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="N154" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -10606,16 +10603,16 @@
         <v>20</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>189</v>
@@ -10624,11 +10621,11 @@
         <v>189</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
@@ -10658,26 +10655,26 @@
         <v>21</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L156" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="N156" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="M156" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="N156" s="2" t="s">
+      <c r="O156" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="O156" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -10707,26 +10704,26 @@
         <v>21</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L157" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N157" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="M157" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N157" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -10756,26 +10753,26 @@
         <v>21</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L158" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N158" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="M158" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="N158" s="2" t="s">
+      <c r="O158" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="O158" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -10805,26 +10802,26 @@
         <v>21</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L159" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="N159" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="M159" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="N159" s="2" t="s">
-        <v>750</v>
-      </c>
       <c r="O159" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -10860,16 +10857,16 @@
         <v>38</v>
       </c>
       <c r="L160" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="M160" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="M160" s="2" t="s">
+      <c r="N160" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O160" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="N160" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O160" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" s="2" t="s">
@@ -10903,26 +10900,26 @@
         <v>21</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>90</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
@@ -10952,26 +10949,26 @@
         <v>21</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L162" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="M162" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="M162" s="2" t="s">
+      <c r="N162" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="N162" s="2" t="s">
+      <c r="O162" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="O162" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -10998,7 +10995,7 @@
         <v>20</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>119</v>
@@ -11007,20 +11004,20 @@
         <v>38</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
@@ -11056,20 +11053,20 @@
         <v>32</v>
       </c>
       <c r="L164" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="M164" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="M164" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>104</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
@@ -11105,20 +11102,20 @@
         <v>32</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N165" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="O165" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="O165" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
@@ -11148,26 +11145,26 @@
         <v>21</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L166" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="M166" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="M166" s="2" t="s">
-        <v>778</v>
-      </c>
       <c r="N166" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -11194,29 +11191,29 @@
         <v>20</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L167" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="M167" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="N167" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="N167" s="2" t="s">
+      <c r="O167" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="O167" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
@@ -11246,26 +11243,26 @@
         <v>21</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L168" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="M168" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="M168" s="2" t="s">
+      <c r="N168" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="N168" s="2" t="s">
-        <v>789</v>
-      </c>
       <c r="O168" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
@@ -11295,26 +11292,26 @@
         <v>21</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N169" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="O169" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="O169" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
@@ -11344,19 +11341,19 @@
         <v>21</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>134</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>111</v>
@@ -11393,26 +11390,26 @@
         <v>21</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L171" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M171" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="M171" s="2" t="s">
+      <c r="N171" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="N171" s="2" t="s">
+      <c r="O171" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
@@ -11442,26 +11439,26 @@
         <v>21</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L172" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="M172" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="M172" s="2" t="s">
-        <v>805</v>
-      </c>
       <c r="N172" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2" t="s">
-        <v>806</v>
+        <v>847</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
@@ -11491,7 +11488,7 @@
         <v>21</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>32</v>
@@ -11500,7 +11497,7 @@
         <v>49</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N173" s="2" t="s">
         <v>189</v>
@@ -11510,7 +11507,7 @@
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
@@ -11540,13 +11537,13 @@
         <v>21</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M174" s="2" t="s">
         <v>139</v>
@@ -11559,7 +11556,7 @@
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -11589,26 +11586,26 @@
         <v>21</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
@@ -11638,26 +11635,26 @@
         <v>21</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L176" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="N176" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="M176" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="N176" s="2" t="s">
-        <v>817</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>193</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/survey_results_1.xlsx
+++ b/Resources/survey_results_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pam/class/HW/23 Project4 - Veggie/veggie-tales/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8384A581-8FD1-2643-B40F-080D0F0EF7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA49DAAC-536D-4B40-8B7F-AE35D4F7D910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49720" yWindow="-4400" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49720" yWindow="-4420" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1201,9 +1201,6 @@
     <t>Baked;Boiled;Grilled;Steamed;</t>
   </si>
   <si>
-    <t>Strawberries, blueberries,apples</t>
-  </si>
-  <si>
     <t xml:space="preserve">What We Do in the Shadows </t>
   </si>
   <si>
@@ -1438,9 +1435,6 @@
     <t>Fried/Air-fried;Grilled;Baked;</t>
   </si>
   <si>
-    <t xml:space="preserve">Apples, grapes, strawberries </t>
-  </si>
-  <si>
     <t>Broccoli;Carrots;Cauliflower;Corn;Green Beans;</t>
   </si>
   <si>
@@ -2485,12 +2479,6 @@
     <t xml:space="preserve">Grapes, apples, banana </t>
   </si>
   <si>
-    <t xml:space="preserve">Apples, bananas, cantaloupe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banana, apple </t>
-  </si>
-  <si>
     <t xml:space="preserve">Watermelon, oranges, grapes </t>
   </si>
   <si>
@@ -2533,9 +2521,6 @@
     <t>Blackberries, raspberries, kiwi</t>
   </si>
   <si>
-    <t xml:space="preserve">Bananas, strawberries </t>
-  </si>
-  <si>
     <t>Pineapple, Mango, Grapes</t>
   </si>
   <si>
@@ -2573,6 +2558,21 @@
   </si>
   <si>
     <t>Banana, watermelon, apple</t>
+  </si>
+  <si>
+    <t>Strawberries, blueberries, apples</t>
+  </si>
+  <si>
+    <t>Bananas, strawberries</t>
+  </si>
+  <si>
+    <t>Apples, grapes, strawberries</t>
+  </si>
+  <si>
+    <t>Apples, bananas, cantaloupe</t>
+  </si>
+  <si>
+    <t>Banana, apple</t>
   </si>
 </sst>
 </file>
@@ -3017,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L36" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
-        <v>391</v>
+        <v>844</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -6735,26 +6735,26 @@
         <v>21</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L76" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M76" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>135</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -6784,26 +6784,26 @@
         <v>21</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>280</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>172</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -6833,13 +6833,13 @@
         <v>21</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>286</v>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -6882,26 +6882,26 @@
         <v>21</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>153</v>
       </c>
       <c r="N79" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -6931,13 +6931,13 @@
         <v>21</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>295</v>
@@ -6946,11 +6946,11 @@
         <v>295</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6980,26 +6980,26 @@
         <v>21</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L81" s="2" t="s">
+      <c r="M81" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="M81" s="2" t="s">
+      <c r="N81" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -7029,13 +7029,13 @@
         <v>21</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>135</v>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -7078,26 +7078,26 @@
         <v>21</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L83" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M83" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="O83" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -7127,26 +7127,26 @@
         <v>21</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L84" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M84" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>216</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -7225,26 +7225,26 @@
         <v>100</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L86" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="M86" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="M86" s="2" t="s">
+      <c r="N86" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="O86" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -7280,10 +7280,10 @@
         <v>32</v>
       </c>
       <c r="L87" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M87" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>363</v>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -7323,26 +7323,26 @@
         <v>100</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N88" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="O88" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -7378,10 +7378,10 @@
         <v>46</v>
       </c>
       <c r="L89" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="M89" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>296</v>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -7427,20 +7427,20 @@
         <v>46</v>
       </c>
       <c r="L90" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M90" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="N90" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="O90" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -7470,26 +7470,26 @@
         <v>21</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L91" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="M91" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="N91" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="O91" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -7519,26 +7519,26 @@
         <v>21</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>159</v>
       </c>
       <c r="N92" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="O92" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -7568,26 +7568,26 @@
         <v>21</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>140</v>
       </c>
       <c r="N93" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="O93" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -7623,20 +7623,20 @@
         <v>32</v>
       </c>
       <c r="L94" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="N94" s="2" t="s">
+      <c r="O94" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2" t="s">
-        <v>470</v>
+        <v>846</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -7672,20 +7672,20 @@
         <v>32</v>
       </c>
       <c r="L95" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N95" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -7715,26 +7715,26 @@
         <v>21</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L96" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -7761,29 +7761,29 @@
         <v>20</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L97" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="M97" s="2" t="s">
+      <c r="O97" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -7813,26 +7813,26 @@
         <v>100</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L98" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N98" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>172</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -7862,26 +7862,26 @@
         <v>21</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L99" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N99" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>172</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -7911,7 +7911,7 @@
         <v>21</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>38</v>
@@ -7923,14 +7923,14 @@
         <v>215</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -7960,26 +7960,26 @@
         <v>21</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L101" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="N101" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="O101" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -8009,26 +8009,26 @@
         <v>21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>171</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -8058,26 +8058,26 @@
         <v>21</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>286</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -8107,26 +8107,26 @@
         <v>21</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -8156,26 +8156,26 @@
         <v>21</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L105" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="N105" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>323</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -8205,26 +8205,26 @@
         <v>21</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L106" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="N106" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>380</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -8254,26 +8254,26 @@
         <v>21</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>345</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -8303,26 +8303,26 @@
         <v>21</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -8352,26 +8352,26 @@
         <v>21</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L109" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="N109" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -8401,26 +8401,26 @@
         <v>21</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L110" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="N110" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="O110" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -8450,26 +8450,26 @@
         <v>21</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L111" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="N111" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="M111" s="2" t="s">
+      <c r="O111" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="N111" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -8493,32 +8493,32 @@
         <v>19</v>
       </c>
       <c r="H112" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J112" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L112" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="N112" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="M112" s="2" t="s">
+      <c r="O112" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -8545,7 +8545,7 @@
         <v>20</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>241</v>
@@ -8554,20 +8554,20 @@
         <v>46</v>
       </c>
       <c r="L113" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="N113" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -8597,26 +8597,26 @@
         <v>21</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -8646,26 +8646,26 @@
         <v>21</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L115" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="N115" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>302</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -8695,26 +8695,26 @@
         <v>21</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>159</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -8744,26 +8744,26 @@
         <v>21</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L117" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="N117" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -8793,26 +8793,26 @@
         <v>21</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -8842,26 +8842,26 @@
         <v>21</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>103</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -8897,20 +8897,20 @@
         <v>32</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>130</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>105</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -8946,7 +8946,7 @@
         <v>38</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>40</v>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -8989,26 +8989,26 @@
         <v>21</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L122" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="O122" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -9038,26 +9038,26 @@
         <v>21</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L123" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="N123" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="M123" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="O123" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -9087,26 +9087,26 @@
         <v>21</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>231</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>380</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -9136,26 +9136,26 @@
         <v>21</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>122</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
@@ -9185,13 +9185,13 @@
         <v>21</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>103</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -9234,13 +9234,13 @@
         <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>103</v>
@@ -9253,7 +9253,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -9283,13 +9283,13 @@
         <v>21</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>159</v>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -9338,20 +9338,20 @@
         <v>38</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>296</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -9387,20 +9387,20 @@
         <v>32</v>
       </c>
       <c r="L130" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N130" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>57</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -9427,29 +9427,29 @@
         <v>20</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L131" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="N131" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="M131" s="2" t="s">
+      <c r="O131" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -9485,10 +9485,10 @@
         <v>46</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>126</v>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
@@ -9534,20 +9534,20 @@
         <v>38</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -9574,29 +9574,29 @@
         <v>20</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -9626,26 +9626,26 @@
         <v>21</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
@@ -9672,29 +9672,29 @@
         <v>30</v>
       </c>
       <c r="I136" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L136" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="M136" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="K136" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L136" s="2" t="s">
+      <c r="N136" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="O136" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
@@ -9730,7 +9730,7 @@
         <v>38</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>103</v>
@@ -9739,11 +9739,11 @@
         <v>378</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -9779,20 +9779,20 @@
         <v>38</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="O138" s="2" t="s">
         <v>355</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -9822,26 +9822,26 @@
         <v>21</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L139" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="N139" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>172</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -9871,26 +9871,26 @@
         <v>21</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L140" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="N140" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="M140" s="2" t="s">
+      <c r="O140" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="N140" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
@@ -9926,20 +9926,20 @@
         <v>38</v>
       </c>
       <c r="L141" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="N141" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="M141" s="2" t="s">
+      <c r="O141" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="N141" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -9969,26 +9969,26 @@
         <v>21</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L142" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="N142" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -10024,20 +10024,20 @@
         <v>38</v>
       </c>
       <c r="L143" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="O143" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="O143" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>65</v>
@@ -10067,26 +10067,26 @@
         <v>21</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -10116,13 +10116,13 @@
         <v>21</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>109</v>
@@ -10131,11 +10131,11 @@
         <v>307</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -10165,26 +10165,26 @@
         <v>21</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L146" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="O146" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -10214,26 +10214,26 @@
         <v>21</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M147" s="2" t="s">
         <v>388</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -10263,26 +10263,26 @@
         <v>21</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L148" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="N148" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="M148" s="2" t="s">
+      <c r="O148" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="N148" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="O148" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -10312,13 +10312,13 @@
         <v>21</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M149" s="2" t="s">
         <v>352</v>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -10361,26 +10361,26 @@
         <v>21</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L150" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="O150" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="M150" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="O150" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -10410,26 +10410,26 @@
         <v>21</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>355</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
@@ -10459,16 +10459,16 @@
         <v>21</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>212</v>
@@ -10478,7 +10478,7 @@
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
@@ -10505,29 +10505,29 @@
         <v>233</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L153" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="N153" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="M153" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="N153" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="O153" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -10554,7 +10554,7 @@
         <v>20</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>124</v>
@@ -10563,20 +10563,20 @@
         <v>46</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -10603,16 +10603,16 @@
         <v>20</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>189</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
@@ -10661,20 +10661,20 @@
         <v>32</v>
       </c>
       <c r="L156" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="O156" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="M156" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="O156" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -10704,26 +10704,26 @@
         <v>21</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M157" s="2" t="s">
         <v>374</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -10753,26 +10753,26 @@
         <v>21</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="M158" s="2" t="s">
         <v>378</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -10802,26 +10802,26 @@
         <v>21</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -10857,16 +10857,16 @@
         <v>38</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N160" s="2" t="s">
         <v>271</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" s="2" t="s">
@@ -10900,26 +10900,26 @@
         <v>21</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>90</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
@@ -10949,26 +10949,26 @@
         <v>21</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L162" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="N162" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="M162" s="2" t="s">
+      <c r="O162" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="N162" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="O162" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -10995,7 +10995,7 @@
         <v>20</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>119</v>
@@ -11007,17 +11007,17 @@
         <v>334</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
@@ -11053,20 +11053,20 @@
         <v>32</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>104</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
@@ -11102,20 +11102,20 @@
         <v>32</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
@@ -11145,26 +11145,26 @@
         <v>21</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -11191,29 +11191,29 @@
         <v>20</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L167" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="N167" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="O167" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="N167" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="O167" s="2" t="s">
-        <v>783</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
@@ -11243,26 +11243,26 @@
         <v>21</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L168" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="N168" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="M168" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="N168" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="O168" s="2" t="s">
         <v>355</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
@@ -11292,26 +11292,26 @@
         <v>21</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
@@ -11341,19 +11341,19 @@
         <v>21</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>134</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>111</v>
@@ -11390,26 +11390,26 @@
         <v>21</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L171" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="N171" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="M171" s="2" t="s">
+      <c r="O171" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="N171" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
@@ -11439,26 +11439,26 @@
         <v>21</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
@@ -11488,7 +11488,7 @@
         <v>21</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>32</v>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
@@ -11537,13 +11537,13 @@
         <v>21</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M174" s="2" t="s">
         <v>139</v>
@@ -11556,7 +11556,7 @@
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -11586,16 +11586,16 @@
         <v>21</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="N175" s="2" t="s">
         <v>363</v>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
@@ -11635,26 +11635,26 @@
         <v>21</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L176" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="N176" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="M176" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="N176" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>193</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/survey_results_1.xlsx
+++ b/Resources/survey_results_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pam/class/HW/23 Project4 - Veggie/veggie-tales/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA49DAAC-536D-4B40-8B7F-AE35D4F7D910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB5FE9-B8C1-F949-8EF4-67F2EBE1032D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49720" yWindow="-4420" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="847">
   <si>
     <t>ID</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Grilled;Sauteed;Baked;</t>
   </si>
   <si>
-    <t xml:space="preserve">Cherries, blueberries, pineapple </t>
-  </si>
-  <si>
     <t>20-29</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>Baked;Fried/Air-fried;Sauteed;</t>
   </si>
   <si>
-    <t xml:space="preserve">bananas, grapes, pomegranate </t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -514,9 +508,6 @@
     <t>Microwaved;</t>
   </si>
   <si>
-    <t xml:space="preserve">Apples, pineapples, strawberries </t>
-  </si>
-  <si>
     <t>Broccoli;Carrots;Corn;</t>
   </si>
   <si>
@@ -547,9 +538,6 @@
     <t>Grilled;</t>
   </si>
   <si>
-    <t xml:space="preserve">Blueberries, oranges, raspberries </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hell's kitchen </t>
   </si>
   <si>
@@ -598,9 +586,6 @@
     <t>Lettuce (any kind);</t>
   </si>
   <si>
-    <t xml:space="preserve">Apple’s, blueberries, melon </t>
-  </si>
-  <si>
     <t>Dancing with the Stars</t>
   </si>
   <si>
@@ -772,9 +757,6 @@
     <t>Grilled;Baked;Sauteed;Steamed;</t>
   </si>
   <si>
-    <t xml:space="preserve">Pomegranate, grapefruit, mango </t>
-  </si>
-  <si>
     <t>schitt's creek</t>
   </si>
   <si>
@@ -808,9 +790,6 @@
     <t>Baked;Microwaved;Grilled;</t>
   </si>
   <si>
-    <t xml:space="preserve">Bananas, grapes, oranges </t>
-  </si>
-  <si>
     <t xml:space="preserve">Monday night football </t>
   </si>
   <si>
@@ -859,9 +838,6 @@
     <t>Brussels sprouts;</t>
   </si>
   <si>
-    <t xml:space="preserve">Oranges, pears, watermelon </t>
-  </si>
-  <si>
     <t>The First Lady</t>
   </si>
   <si>
@@ -877,9 +853,6 @@
     <t>Roasted ;</t>
   </si>
   <si>
-    <t xml:space="preserve">Grapes, cantelope, orange </t>
-  </si>
-  <si>
     <t xml:space="preserve">Jeopardy </t>
   </si>
   <si>
@@ -937,9 +910,6 @@
     <t>Sauteed;Grilled;Baked;</t>
   </si>
   <si>
-    <t xml:space="preserve">strawberries, peaches, blueberries </t>
-  </si>
-  <si>
     <t>Cosby show</t>
   </si>
   <si>
@@ -973,9 +943,6 @@
     <t>Squash;Lettuce (any kind);Broccoli;</t>
   </si>
   <si>
-    <t xml:space="preserve">Graded, Strawberries,  pineapple </t>
-  </si>
-  <si>
     <t>The Wire</t>
   </si>
   <si>
@@ -1042,9 +1009,6 @@
     <t>Fried/Air-fried;Sauteed;Grilled;</t>
   </si>
   <si>
-    <t xml:space="preserve">Mango, Strawberries, Watermelon </t>
-  </si>
-  <si>
     <t>Caucasian, Latino/Hispanic;Caucasian, non-Hispanic;</t>
   </si>
   <si>
@@ -1096,9 +1060,6 @@
     <t>Sauteed;</t>
   </si>
   <si>
-    <t xml:space="preserve">Berries, grapes, oranges </t>
-  </si>
-  <si>
     <t>Seinfeld</t>
   </si>
   <si>
@@ -1153,9 +1114,6 @@
     <t>Lettuce (any kind);Carrots;Broccoli;</t>
   </si>
   <si>
-    <t xml:space="preserve">Apples, bananas, strawberries </t>
-  </si>
-  <si>
     <t>The Chase</t>
   </si>
   <si>
@@ -1171,9 +1129,6 @@
     <t>Fried/Air-fried;Grilled;Sauteed;</t>
   </si>
   <si>
-    <t xml:space="preserve">Oranges, apples, bananas </t>
-  </si>
-  <si>
     <t>Sherlock</t>
   </si>
   <si>
@@ -1357,9 +1312,6 @@
     <t>Steamed;Raw;</t>
   </si>
   <si>
-    <t xml:space="preserve">Apples, banana, blueberries </t>
-  </si>
-  <si>
     <t>Spinach;Lettuce (any kind);Broccoli;Carrots;Corn;</t>
   </si>
   <si>
@@ -1396,9 +1348,6 @@
     <t>Baked;Raw;</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana, clementine, blueberries </t>
-  </si>
-  <si>
     <t>Below deck</t>
   </si>
   <si>
@@ -1492,9 +1441,6 @@
     <t>Green Beans;Carrots;Asparagus ;</t>
   </si>
   <si>
-    <t xml:space="preserve">Mango, grapes, banana </t>
-  </si>
-  <si>
     <t>Broccoli;Carrots;Lettuce (any kind);Green Beans;Brussel sprouts;</t>
   </si>
   <si>
@@ -1504,9 +1450,6 @@
     <t>Lettuce (any kind);Green Beans;Broccoli;</t>
   </si>
   <si>
-    <t xml:space="preserve">Mango, banana, watermelon </t>
-  </si>
-  <si>
     <t>The office</t>
   </si>
   <si>
@@ -1573,9 +1516,6 @@
     <t>Boiled;Sauteed;Steamed;</t>
   </si>
   <si>
-    <t xml:space="preserve">Apple </t>
-  </si>
-  <si>
     <t>Futurama</t>
   </si>
   <si>
@@ -1618,9 +1558,6 @@
     <t>Grilled;Boiled;</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana, blackberry, raspberry </t>
-  </si>
-  <si>
     <t>Stargate</t>
   </si>
   <si>
@@ -1699,9 +1636,6 @@
     <t>Grilled;Baked;Steamed;Sauteed;</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana, Papaya, Cherries </t>
-  </si>
-  <si>
     <t>Northeast</t>
   </si>
   <si>
@@ -1744,9 +1678,6 @@
     <t>Corn;Green Beans;Lettuce (any kind);Squash;Peas;</t>
   </si>
   <si>
-    <t xml:space="preserve">Apples, blueberries, grapes </t>
-  </si>
-  <si>
     <t>Green Beans;Corn;Broccoli;Lettuce (any kind);Spinach;</t>
   </si>
   <si>
@@ -1801,9 +1732,6 @@
     <t>Spinach;Lettuce (any kind);Green Beans;</t>
   </si>
   <si>
-    <t xml:space="preserve">Apples, oranges, grapes </t>
-  </si>
-  <si>
     <t>Broccoli;Carrots;Squash;Peas;Cauliflower;</t>
   </si>
   <si>
@@ -1822,9 +1750,6 @@
     <t>Sauteed;Grilled;</t>
   </si>
   <si>
-    <t xml:space="preserve">STRAWBERRIES, BANANAS, CANTELOPE </t>
-  </si>
-  <si>
     <t>Broccoli;Cauliflower;Lettuce (any kind);Squash;Green Beans;</t>
   </si>
   <si>
@@ -1951,9 +1876,6 @@
     <t>Broccoli;Lettuce (any kind);Corn;Asparagus ;</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana, pineapple, raspberry </t>
-  </si>
-  <si>
     <t>Arrested Development</t>
   </si>
   <si>
@@ -1987,9 +1909,6 @@
     <t>Fried/Air-fried;Sauteed;Steamed;</t>
   </si>
   <si>
-    <t xml:space="preserve">Apple, grapes, pomegranates </t>
-  </si>
-  <si>
     <t>Broccoli;Carrots;Lettuce (any kind);Squash;Corn;</t>
   </si>
   <si>
@@ -2020,9 +1939,6 @@
     <t>Asparagus ;Green Beans;Cauliflower;</t>
   </si>
   <si>
-    <t xml:space="preserve">Blueberry, watermelon, grapefruit </t>
-  </si>
-  <si>
     <t>Scorpians</t>
   </si>
   <si>
@@ -2053,9 +1969,6 @@
     <t>Baked;Grilled;</t>
   </si>
   <si>
-    <t xml:space="preserve">Blackberries, bananas, apples, mango, strawberries </t>
-  </si>
-  <si>
     <t>30 Rock</t>
   </si>
   <si>
@@ -2068,9 +1981,6 @@
     <t>Broccoli;Squash;eggplant;</t>
   </si>
   <si>
-    <t xml:space="preserve">kiwi, rainer cherries, blueberries </t>
-  </si>
-  <si>
     <t>Broccoli;Corn;Spinach;Green Beans;Cucumber;</t>
   </si>
   <si>
@@ -2203,9 +2113,6 @@
     <t>Lettuce (any kind);Corn;Broccoli;</t>
   </si>
   <si>
-    <t xml:space="preserve">Berries, Citrus, Apples, Grapes </t>
-  </si>
-  <si>
     <t>Corn;Green Beans;Carrots;Spinach;Pinto Beans;</t>
   </si>
   <si>
@@ -2344,9 +2251,6 @@
     <t>Grilled;Sauteed;Fried/Air-fried;</t>
   </si>
   <si>
-    <t xml:space="preserve">Grapes, strawberries, bananas </t>
-  </si>
-  <si>
     <t>Bull</t>
   </si>
   <si>
@@ -2476,42 +2380,18 @@
     <t>Mangoes, cherries, oranges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grapes, apples, banana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watermelon, oranges, grapes </t>
-  </si>
-  <si>
     <t>Pineapple, apple, watermelon</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana, grapes, pineapple </t>
-  </si>
-  <si>
     <t>Banana, apple, grapes</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana, melon, grapes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blueberries, cherries, strawberries </t>
-  </si>
-  <si>
     <t>Watermelon, Strawberries, Banana</t>
   </si>
   <si>
-    <t xml:space="preserve">orange, pineapple, banana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apples, watermelon, grapes </t>
-  </si>
-  <si>
     <t>Strawberries, Pineapple, Peaches</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana, apple, strawberry </t>
-  </si>
-  <si>
     <t>grapes, apples, bananas</t>
   </si>
   <si>
@@ -2524,30 +2404,15 @@
     <t>Pineapple, Mango, Grapes</t>
   </si>
   <si>
-    <t xml:space="preserve">Mango, pineapple, banana </t>
-  </si>
-  <si>
     <t>Grapefruit, apples, grapes</t>
   </si>
   <si>
-    <t xml:space="preserve">Pineapple, grapes, apples </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berries, pineapple, watermelon </t>
-  </si>
-  <si>
     <t>strawberry, watermelon, grapes, bananas</t>
   </si>
   <si>
     <t>grapes, watermelon, strawberry</t>
   </si>
   <si>
-    <t xml:space="preserve">Mango, Lynches, jack fruit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapes, water melon </t>
-  </si>
-  <si>
     <t>Kiwi, mango, strawberries</t>
   </si>
   <si>
@@ -2573,6 +2438,135 @@
   </si>
   <si>
     <t>Banana, apple</t>
+  </si>
+  <si>
+    <t>Cherries, blueberries, pineapple</t>
+  </si>
+  <si>
+    <t>bananas, grapes, pomegranate</t>
+  </si>
+  <si>
+    <t>Grapes, apples, banana</t>
+  </si>
+  <si>
+    <t>Watermelon, oranges, grapes</t>
+  </si>
+  <si>
+    <t>Apples, pineapples, strawberries</t>
+  </si>
+  <si>
+    <t>Blueberries, oranges, raspberries</t>
+  </si>
+  <si>
+    <t>Banana, grapes, pineapple</t>
+  </si>
+  <si>
+    <t>Apple’s, blueberries, melon</t>
+  </si>
+  <si>
+    <t>Banana, melon, grapes</t>
+  </si>
+  <si>
+    <t>Pomegranate, grapefruit, mango</t>
+  </si>
+  <si>
+    <t>Bananas, grapes, oranges</t>
+  </si>
+  <si>
+    <t>Blueberries, cherries, strawberries</t>
+  </si>
+  <si>
+    <t>Oranges, pears, watermelon</t>
+  </si>
+  <si>
+    <t>Grapes, cantelope, orange</t>
+  </si>
+  <si>
+    <t>strawberries, peaches, blueberries</t>
+  </si>
+  <si>
+    <t>orange, pineapple, banana</t>
+  </si>
+  <si>
+    <t>Graded, Strawberries,  pineapple</t>
+  </si>
+  <si>
+    <t>Mango, Strawberries, Watermelon</t>
+  </si>
+  <si>
+    <t>Apples, watermelon, grapes</t>
+  </si>
+  <si>
+    <t>Berries, grapes, oranges</t>
+  </si>
+  <si>
+    <t>Apples, bananas, strawberries</t>
+  </si>
+  <si>
+    <t>Oranges, apples, bananas</t>
+  </si>
+  <si>
+    <t>Apples, banana, blueberries</t>
+  </si>
+  <si>
+    <t>Banana, clementine, blueberries</t>
+  </si>
+  <si>
+    <t>Mango, pineapple, banana</t>
+  </si>
+  <si>
+    <t>Mango, grapes, banana</t>
+  </si>
+  <si>
+    <t>Mango, banana, watermelon</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Banana, blackberry, raspberry</t>
+  </si>
+  <si>
+    <t>Banana, Papaya, Cherries</t>
+  </si>
+  <si>
+    <t>Apples, blueberries, grapes</t>
+  </si>
+  <si>
+    <t>Pineapple, grapes, apples</t>
+  </si>
+  <si>
+    <t>Berries, pineapple, watermelon</t>
+  </si>
+  <si>
+    <t>Apples, oranges, grapes</t>
+  </si>
+  <si>
+    <t>STRAWBERRIES, BANANAS, CANTELOPE</t>
+  </si>
+  <si>
+    <t>Banana, pineapple, raspberry</t>
+  </si>
+  <si>
+    <t>Apple, grapes, pomegranates</t>
+  </si>
+  <si>
+    <t>Blueberry, watermelon, grapefruit</t>
+  </si>
+  <si>
+    <t>Blackberries, bananas, apples, mango, strawberries</t>
+  </si>
+  <si>
+    <t>kiwi, rainer cherries, blueberries</t>
+  </si>
+  <si>
+    <t>Mango, Lynches, jack fruit</t>
+  </si>
+  <si>
+    <t>Grapes, water melon</t>
+  </si>
+  <si>
+    <t>Berries, Citrus, Apples, Grapes</t>
   </si>
 </sst>
 </file>
@@ -3017,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="L148" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q178" sqref="Q178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3128,7 +3122,7 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>28</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3146,38 +3140,38 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3207,26 +3201,26 @@
         <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3244,38 +3238,38 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3293,38 +3287,38 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -3342,38 +3336,38 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>64</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3391,38 +3385,38 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3452,26 +3446,26 @@
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3489,7 +3483,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>19</v>
@@ -3501,26 +3495,26 @@
         <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3538,38 +3532,38 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>847</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3587,38 +3581,38 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>848</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3636,7 +3630,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>19</v>
@@ -3648,26 +3642,26 @@
         <v>21</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -3685,7 +3679,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
@@ -3697,26 +3691,26 @@
         <v>21</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3734,7 +3728,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>19</v>
@@ -3743,29 +3737,29 @@
         <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -3783,7 +3777,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
@@ -3795,26 +3789,26 @@
         <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="21" x14ac:dyDescent="0.25">
@@ -3832,10 +3826,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -3844,26 +3838,26 @@
         <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -3881,10 +3875,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>20</v>
@@ -3893,26 +3887,26 @@
         <v>21</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -3930,7 +3924,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>19</v>
@@ -3942,26 +3936,26 @@
         <v>21</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="N19" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>818</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -3979,7 +3973,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
@@ -3991,26 +3985,26 @@
         <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="O20" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -4028,38 +4022,38 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="O21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -4080,7 +4074,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
@@ -4089,26 +4083,26 @@
         <v>21</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -4126,38 +4120,38 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -4175,38 +4169,38 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -4236,26 +4230,26 @@
         <v>21</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2" t="s">
-        <v>162</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -4285,26 +4279,26 @@
         <v>21</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -4322,10 +4316,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>20</v>
@@ -4334,26 +4328,26 @@
         <v>21</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
-        <v>173</v>
+        <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4371,7 +4365,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>19</v>
@@ -4383,26 +4377,26 @@
         <v>21</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -4432,26 +4426,26 @@
         <v>21</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4469,7 +4463,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>19</v>
@@ -4481,26 +4475,26 @@
         <v>21</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4521,7 +4515,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>20</v>
@@ -4530,26 +4524,26 @@
         <v>21</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2" t="s">
-        <v>190</v>
+        <v>811</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4567,10 +4561,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>20</v>
@@ -4579,26 +4573,26 @@
         <v>21</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -4616,7 +4610,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
@@ -4628,26 +4622,26 @@
         <v>21</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -4665,38 +4659,38 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -4726,26 +4720,26 @@
         <v>21</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -4775,26 +4769,26 @@
         <v>21</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -4824,26 +4818,26 @@
         <v>21</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -4861,7 +4855,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>19</v>
@@ -4873,26 +4867,26 @@
         <v>21</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -4910,38 +4904,38 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -4959,7 +4953,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>19</v>
@@ -4971,26 +4965,26 @@
         <v>21</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2" t="s">
-        <v>820</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -5011,35 +5005,35 @@
         <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -5057,38 +5051,38 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -5106,10 +5100,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>20</v>
@@ -5118,26 +5112,26 @@
         <v>21</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2" t="s">
-        <v>248</v>
+        <v>813</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -5155,38 +5149,38 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -5207,7 +5201,7 @@
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>20</v>
@@ -5216,26 +5210,26 @@
         <v>21</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -5265,26 +5259,26 @@
         <v>21</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2" t="s">
-        <v>260</v>
+        <v>814</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -5302,10 +5296,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>20</v>
@@ -5314,26 +5308,26 @@
         <v>21</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -5351,7 +5345,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>19</v>
@@ -5363,26 +5357,26 @@
         <v>21</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5403,7 +5397,7 @@
         <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>20</v>
@@ -5412,26 +5406,26 @@
         <v>21</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -5461,26 +5455,26 @@
         <v>21</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2" t="s">
-        <v>277</v>
+        <v>816</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -5498,7 +5492,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>19</v>
@@ -5510,26 +5504,26 @@
         <v>21</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2" t="s">
-        <v>283</v>
+        <v>817</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -5559,26 +5553,26 @@
         <v>21</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -5596,7 +5590,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>19</v>
@@ -5608,26 +5602,26 @@
         <v>21</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -5657,26 +5651,26 @@
         <v>21</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2" t="s">
-        <v>843</v>
+        <v>798</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5694,7 +5688,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>19</v>
@@ -5706,26 +5700,26 @@
         <v>21</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -5743,7 +5737,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>19</v>
@@ -5755,26 +5749,26 @@
         <v>21</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>303</v>
+        <v>818</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -5792,38 +5786,38 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2" t="s">
-        <v>823</v>
+        <v>786</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5841,38 +5835,38 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5890,7 +5884,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>19</v>
@@ -5902,26 +5896,26 @@
         <v>21</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2" t="s">
-        <v>315</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5939,38 +5933,38 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -5991,7 +5985,7 @@
         <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>20</v>
@@ -6003,23 +5997,23 @@
         <v>22</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -6043,32 +6037,32 @@
         <v>19</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6086,7 +6080,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>19</v>
@@ -6098,26 +6092,26 @@
         <v>21</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>338</v>
+        <v>821</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -6141,32 +6135,32 @@
         <v>19</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6196,26 +6190,26 @@
         <v>21</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -6245,26 +6239,26 @@
         <v>21</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -6282,7 +6276,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>19</v>
@@ -6294,26 +6288,26 @@
         <v>21</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2" t="s">
-        <v>826</v>
+        <v>787</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -6331,7 +6325,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>19</v>
@@ -6340,29 +6334,29 @@
         <v>20</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="s">
-        <v>356</v>
+        <v>823</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -6392,26 +6386,26 @@
         <v>21</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -6429,10 +6423,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>20</v>
@@ -6441,26 +6435,26 @@
         <v>21</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -6490,26 +6484,26 @@
         <v>21</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -6539,26 +6533,26 @@
         <v>21</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2" t="s">
-        <v>375</v>
+        <v>824</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -6576,38 +6570,38 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2" t="s">
-        <v>381</v>
+        <v>825</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -6637,26 +6631,26 @@
         <v>21</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -6674,7 +6668,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>19</v>
@@ -6686,26 +6680,26 @@
         <v>21</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
-        <v>844</v>
+        <v>799</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -6723,7 +6717,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>19</v>
@@ -6735,26 +6729,26 @@
         <v>21</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -6772,10 +6766,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>20</v>
@@ -6784,26 +6778,26 @@
         <v>21</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2" t="s">
-        <v>827</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -6821,7 +6815,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>19</v>
@@ -6833,26 +6827,26 @@
         <v>21</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -6870,7 +6864,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>19</v>
@@ -6882,26 +6876,26 @@
         <v>21</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2" t="s">
-        <v>828</v>
+        <v>788</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -6919,7 +6913,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>19</v>
@@ -6931,26 +6925,26 @@
         <v>21</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6968,10 +6962,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>20</v>
@@ -6980,26 +6974,26 @@
         <v>21</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -7017,10 +7011,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>20</v>
@@ -7029,26 +7023,26 @@
         <v>21</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2" t="s">
-        <v>829</v>
+        <v>789</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -7066,7 +7060,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>19</v>
@@ -7078,26 +7072,26 @@
         <v>21</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -7115,7 +7109,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>19</v>
@@ -7127,26 +7121,26 @@
         <v>21</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2" t="s">
-        <v>830</v>
+        <v>790</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -7164,7 +7158,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>19</v>
@@ -7176,26 +7170,26 @@
         <v>21</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -7213,7 +7207,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>19</v>
@@ -7222,29 +7216,29 @@
         <v>20</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -7265,35 +7259,35 @@
         <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -7314,35 +7308,35 @@
         <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2" t="s">
-        <v>443</v>
+        <v>826</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -7360,7 +7354,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>19</v>
@@ -7372,26 +7366,26 @@
         <v>21</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -7409,7 +7403,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>19</v>
@@ -7421,26 +7415,26 @@
         <v>21</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2" t="s">
-        <v>845</v>
+        <v>800</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -7458,10 +7452,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>20</v>
@@ -7470,26 +7464,26 @@
         <v>21</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2" t="s">
-        <v>456</v>
+        <v>827</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -7519,26 +7513,26 @@
         <v>21</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -7556,38 +7550,38 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -7617,26 +7611,26 @@
         <v>21</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -7654,7 +7648,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>19</v>
@@ -7666,26 +7660,26 @@
         <v>21</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -7703,10 +7697,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>20</v>
@@ -7715,26 +7709,26 @@
         <v>21</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -7755,35 +7749,35 @@
         <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -7810,29 +7804,29 @@
         <v>20</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2" t="s">
-        <v>488</v>
+        <v>829</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -7862,26 +7856,26 @@
         <v>21</v>
       </c>
       <c r="J99" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N99" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="O99" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2" t="s">
-        <v>492</v>
+        <v>830</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -7899,7 +7893,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>19</v>
@@ -7911,26 +7905,26 @@
         <v>21</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="K100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L100" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L100" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="M100" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -7948,10 +7942,10 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>20</v>
@@ -7960,26 +7954,26 @@
         <v>21</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -7997,7 +7991,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>19</v>
@@ -8009,26 +8003,26 @@
         <v>21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -8058,26 +8052,26 @@
         <v>21</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -8095,38 +8089,38 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2" t="s">
-        <v>515</v>
+        <v>831</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -8144,38 +8138,38 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -8205,26 +8199,26 @@
         <v>21</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -8242,7 +8236,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>19</v>
@@ -8254,26 +8248,26 @@
         <v>21</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2" t="s">
-        <v>530</v>
+        <v>832</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -8291,7 +8285,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>19</v>
@@ -8303,26 +8297,26 @@
         <v>21</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -8340,7 +8334,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>19</v>
@@ -8352,26 +8346,26 @@
         <v>21</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -8389,38 +8383,38 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I110" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -8438,7 +8432,7 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>19</v>
@@ -8450,26 +8444,26 @@
         <v>21</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -8487,38 +8481,38 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2" t="s">
-        <v>557</v>
+        <v>833</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -8539,35 +8533,35 @@
         <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -8585,7 +8579,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>19</v>
@@ -8597,26 +8591,26 @@
         <v>21</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -8637,7 +8631,7 @@
         <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>20</v>
@@ -8646,26 +8640,26 @@
         <v>21</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2" t="s">
-        <v>572</v>
+        <v>834</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -8683,38 +8677,38 @@
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -8732,7 +8726,7 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>19</v>
@@ -8744,26 +8738,26 @@
         <v>21</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -8781,7 +8775,7 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>19</v>
@@ -8793,26 +8787,26 @@
         <v>21</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -8830,38 +8824,38 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -8879,38 +8873,38 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>591</v>
+        <v>837</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -8928,7 +8922,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>19</v>
@@ -8940,26 +8934,26 @@
         <v>21</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -8977,7 +8971,7 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>19</v>
@@ -8989,26 +8983,26 @@
         <v>21</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2" t="s">
-        <v>598</v>
+        <v>838</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -9032,32 +9026,32 @@
         <v>19</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -9075,7 +9069,7 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>19</v>
@@ -9087,26 +9081,26 @@
         <v>21</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2" t="s">
-        <v>836</v>
+        <v>793</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -9124,7 +9118,7 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>19</v>
@@ -9136,26 +9130,26 @@
         <v>21</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2" t="s">
-        <v>837</v>
+        <v>794</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
@@ -9173,38 +9167,38 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -9222,38 +9216,38 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -9271,7 +9265,7 @@
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>19</v>
@@ -9283,26 +9277,26 @@
         <v>21</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -9320,38 +9314,38 @@
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -9381,26 +9375,26 @@
         <v>21</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -9427,29 +9421,29 @@
         <v>20</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -9467,7 +9461,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>19</v>
@@ -9479,26 +9473,26 @@
         <v>21</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
@@ -9516,7 +9510,7 @@
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>19</v>
@@ -9528,26 +9522,26 @@
         <v>21</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -9565,38 +9559,38 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2" t="s">
-        <v>641</v>
+        <v>839</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -9620,32 +9614,32 @@
         <v>19</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
@@ -9663,38 +9657,38 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I136" s="2" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>653</v>
+        <v>840</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
@@ -9712,7 +9706,7 @@
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>19</v>
@@ -9724,26 +9718,26 @@
         <v>21</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -9761,10 +9755,10 @@
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>20</v>
@@ -9773,26 +9767,26 @@
         <v>21</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -9810,7 +9804,7 @@
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>19</v>
@@ -9822,26 +9816,26 @@
         <v>21</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2" t="s">
-        <v>664</v>
+        <v>841</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -9859,7 +9853,7 @@
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>19</v>
@@ -9871,26 +9865,26 @@
         <v>21</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
@@ -9908,7 +9902,7 @@
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>19</v>
@@ -9920,26 +9914,26 @@
         <v>21</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2" t="s">
-        <v>675</v>
+        <v>842</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -9969,26 +9963,26 @@
         <v>21</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>679</v>
+        <v>650</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2" t="s">
-        <v>680</v>
+        <v>843</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -10006,38 +10000,38 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I143" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="2" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -10055,38 +10049,38 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -10110,32 +10104,32 @@
         <v>19</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -10153,38 +10147,38 @@
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" s="2" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -10202,7 +10196,7 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>19</v>
@@ -10214,26 +10208,26 @@
         <v>21</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -10251,7 +10245,7 @@
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>19</v>
@@ -10263,26 +10257,26 @@
         <v>21</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -10300,7 +10294,7 @@
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>19</v>
@@ -10312,26 +10306,26 @@
         <v>21</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -10349,7 +10343,7 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>19</v>
@@ -10361,26 +10355,26 @@
         <v>21</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -10398,7 +10392,7 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>19</v>
@@ -10410,26 +10404,26 @@
         <v>21</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
@@ -10447,38 +10441,38 @@
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
@@ -10496,38 +10490,38 @@
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>723</v>
+        <v>693</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" s="2" t="s">
-        <v>725</v>
+        <v>846</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -10548,35 +10542,35 @@
         <v>18</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" s="2" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -10594,7 +10588,7 @@
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>19</v>
@@ -10603,29 +10597,29 @@
         <v>20</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" s="2" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
@@ -10649,32 +10643,32 @@
         <v>19</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" s="2" t="s">
-        <v>735</v>
+        <v>704</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -10692,10 +10686,10 @@
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>20</v>
@@ -10704,26 +10698,26 @@
         <v>21</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>736</v>
+        <v>705</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>737</v>
+        <v>706</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>738</v>
+        <v>707</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="2" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -10741,38 +10735,38 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G158" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I158" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>740</v>
+        <v>709</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>742</v>
+        <v>711</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" s="2" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -10790,7 +10784,7 @@
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>19</v>
@@ -10802,26 +10796,26 @@
         <v>21</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" s="2" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -10851,26 +10845,26 @@
         <v>21</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
@@ -10888,7 +10882,7 @@
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>19</v>
@@ -10900,26 +10894,26 @@
         <v>21</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>754</v>
+        <v>723</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" s="2" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
@@ -10949,26 +10943,26 @@
         <v>21</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>756</v>
+        <v>725</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>757</v>
+        <v>726</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>758</v>
+        <v>727</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -10989,35 +10983,35 @@
         <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="2" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
@@ -11050,23 +11044,23 @@
         <v>22</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>765</v>
+        <v>734</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>766</v>
+        <v>735</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>767</v>
+        <v>736</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2" t="s">
-        <v>768</v>
+        <v>737</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
@@ -11096,26 +11090,26 @@
         <v>21</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>771</v>
+        <v>740</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2" t="s">
-        <v>772</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
@@ -11133,38 +11127,38 @@
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -11182,38 +11176,38 @@
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>778</v>
+        <v>746</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
@@ -11243,26 +11237,26 @@
         <v>21</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" s="2" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
@@ -11283,7 +11277,7 @@
         <v>18</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>20</v>
@@ -11292,26 +11286,26 @@
         <v>21</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
@@ -11329,7 +11323,7 @@
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>19</v>
@@ -11341,26 +11335,26 @@
         <v>21</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
@@ -11378,10 +11372,10 @@
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>20</v>
@@ -11390,26 +11384,26 @@
         <v>21</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
@@ -11427,7 +11421,7 @@
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>19</v>
@@ -11439,26 +11433,26 @@
         <v>21</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2" t="s">
-        <v>842</v>
+        <v>797</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
@@ -11479,35 +11473,35 @@
         <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
@@ -11537,26 +11531,26 @@
         <v>21</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>806</v>
+        <v>774</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -11574,7 +11568,7 @@
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>19</v>
@@ -11586,26 +11580,26 @@
         <v>21</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>807</v>
+        <v>775</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>808</v>
+        <v>776</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>809</v>
+        <v>777</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" s="2" t="s">
-        <v>841</v>
+        <v>796</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
@@ -11623,7 +11617,7 @@
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>19</v>
@@ -11635,26 +11629,26 @@
         <v>21</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>810</v>
+        <v>778</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>811</v>
+        <v>779</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>812</v>
+        <v>780</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>813</v>
+        <v>781</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" s="2" t="s">
-        <v>814</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/survey_results_1.xlsx
+++ b/Resources/survey_results_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pam/class/HW/23 Project4 - Veggie/veggie-tales/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB5FE9-B8C1-F949-8EF4-67F2EBE1032D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D81FD-022E-A74F-8862-8C23350DBB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49720" yWindow="-4420" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2488,9 +2488,6 @@
     <t>orange, pineapple, banana</t>
   </si>
   <si>
-    <t>Graded, Strawberries,  pineapple</t>
-  </si>
-  <si>
     <t>Mango, Strawberries, Watermelon</t>
   </si>
   <si>
@@ -2567,6 +2564,9 @@
   </si>
   <si>
     <t>Berries, Citrus, Apples, Grapes</t>
+  </si>
+  <si>
+    <t>Graded, Strawberries, pineapple</t>
   </si>
 </sst>
 </file>
@@ -3011,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L148" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q178" sqref="Q178"/>
+    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -10129,7 +10129,7 @@
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">

--- a/Resources/survey_results_1.xlsx
+++ b/Resources/survey_results_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pam/class/HW/23 Project4 - Veggie/veggie-tales/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D81FD-022E-A74F-8862-8C23350DBB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0F5191-3D6B-CA4E-91E0-44052E028B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49720" yWindow="-4420" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,9 +814,6 @@
     <t>Blacklist</t>
   </si>
   <si>
-    <t>Carrots;Corn;Green Beans;Lettuce (any kind);Peas;Cucumber, potato;</t>
-  </si>
-  <si>
     <t>Corn;Lettuce (any kind);Green Beans;</t>
   </si>
   <si>
@@ -1144,9 +1141,6 @@
     <t>Call the midwife</t>
   </si>
   <si>
-    <t>Broccoli;Cauliflower;Lettuce (any kind);Squash;AsparaguBrussels sprout, potatoestoes;</t>
-  </si>
-  <si>
     <t>Broccoli;Cauliflower;Lettuce (any kind);</t>
   </si>
   <si>
@@ -1159,9 +1153,6 @@
     <t xml:space="preserve">What We Do in the Shadows </t>
   </si>
   <si>
-    <t>Broccoli;Corn;Lettuce (any kind);Onions, tomatoes ;</t>
-  </si>
-  <si>
     <t>Broccoli;Carrots;Tomatoes ;</t>
   </si>
   <si>
@@ -1351,9 +1342,6 @@
     <t>Below deck</t>
   </si>
   <si>
-    <t>Carrots;Green Beans;Lettuce (any kind);Asparagus and Brussel sprouts;</t>
-  </si>
-  <si>
     <t>Green Beans;Asparagus and Brussel sprouts ;</t>
   </si>
   <si>
@@ -1417,9 +1405,6 @@
     <t>The West Wing</t>
   </si>
   <si>
-    <t>Broccoli;Carrots;Lettuce (any kind);Bell pepper and onions ;</t>
-  </si>
-  <si>
     <t>Carrots;Bell pepper and Onion;</t>
   </si>
   <si>
@@ -1567,9 +1552,6 @@
     <t>This is us</t>
   </si>
   <si>
-    <t>Broccoli;Cauliflower;Peas;Bell pepper ;Corn;</t>
-  </si>
-  <si>
     <t>Broccoli;Cauliflower;Brussel sprouts;</t>
   </si>
   <si>
@@ -1669,9 +1651,6 @@
     <t>South Park</t>
   </si>
   <si>
-    <t>Corn;Green Beans;Asparagus, Brussel Sprouts ;Lettuce (any kind);</t>
-  </si>
-  <si>
     <t>Corn;Green Beans;Lettuce (any kind);Asparagus, Brussel sprouts ;</t>
   </si>
   <si>
@@ -1690,9 +1669,6 @@
     <t>Below Deck</t>
   </si>
   <si>
-    <t>Broccoli;Cauliflower;Lettuce (any kind);Spinach;Celery and cucumber ;</t>
-  </si>
-  <si>
     <t>Lettuce (any kind);Celery and cucumber ;</t>
   </si>
   <si>
@@ -1771,9 +1747,6 @@
     <t>Brussel sprouts and asparagus;</t>
   </si>
   <si>
-    <t>Lettuce (any kind);red pepper and cucumber;</t>
-  </si>
-  <si>
     <t>Lettuce (any kind);peppers,cucumber;</t>
   </si>
   <si>
@@ -1972,9 +1945,6 @@
     <t>30 Rock</t>
   </si>
   <si>
-    <t>Broccoli;Spinach;Carrots;bell peppers, asparagus;</t>
-  </si>
-  <si>
     <t>Broccoli;Spinach;orange bell pepper;</t>
   </si>
   <si>
@@ -2020,9 +1990,6 @@
     <t>Rock The Park, Pet Rescue</t>
   </si>
   <si>
-    <t>Squash;Carrots;beats, tomato;Lettuce (any kind);</t>
-  </si>
-  <si>
     <t>Squash;</t>
   </si>
   <si>
@@ -2567,6 +2534,39 @@
   </si>
   <si>
     <t>Graded, Strawberries, pineapple</t>
+  </si>
+  <si>
+    <t>Broccoli;Cauliflower;Lettuce (any kind);Spinach;Celery; cucumber ;</t>
+  </si>
+  <si>
+    <t>Carrots;Corn;Green Beans;Lettuce (any kind);Peas;Cucumber; potato;</t>
+  </si>
+  <si>
+    <t>Broccoli;Cauliflower;Lettuce (any kind);Squash;Asparagus; Brussels sprouts; potatoestoes;</t>
+  </si>
+  <si>
+    <t>Broccoli;Corn;Lettuce (any kind);Onions; tomatoes ;</t>
+  </si>
+  <si>
+    <t>Carrots;Green Beans;Lettuce (any kind);Asparagus; Brussel sprouts;</t>
+  </si>
+  <si>
+    <t>Broccoli;Carrots;Lettuce (any kind);Bell pepper; onions ;</t>
+  </si>
+  <si>
+    <t>Corn;Green Beans;Asparagus; Brussel Sprouts ;Lettuce (any kind);</t>
+  </si>
+  <si>
+    <t>Lettuce (any kind);red pepper; cucumber;</t>
+  </si>
+  <si>
+    <t>Broccoli;Spinach;Carrots;bell peppers;asparagus;</t>
+  </si>
+  <si>
+    <t>Squash;Carrots;beats;tomato;Lettuce (any kind);</t>
+  </si>
+  <si>
+    <t>Broccoli;Cauliflower;Peas;Bell pepper;Corn;</t>
   </si>
 </sst>
 </file>
@@ -3011,14 +3011,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="I103" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L113" sqref="L113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.1640625" customWidth="1"/>
+    <col min="12" max="12" width="67" customWidth="1"/>
     <col min="13" max="16" width="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="83.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5412,20 +5412,20 @@
         <v>45</v>
       </c>
       <c r="L49" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -5455,26 +5455,26 @@
         <v>21</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L50" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="N50" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -5504,26 +5504,26 @@
         <v>21</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -5553,26 +5553,26 @@
         <v>21</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -5602,13 +5602,13 @@
         <v>21</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>160</v>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -5651,16 +5651,16 @@
         <v>21</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>124</v>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5700,26 +5700,26 @@
         <v>21</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L55" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -5737,38 +5737,38 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>238</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -5798,26 +5798,26 @@
         <v>21</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5853,20 +5853,20 @@
         <v>45</v>
       </c>
       <c r="L58" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="N58" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>188</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5896,26 +5896,26 @@
         <v>21</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>245</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>217</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5945,26 +5945,26 @@
         <v>21</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L60" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="N60" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>120</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6000,20 +6000,20 @@
         <v>37</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>133</v>
       </c>
       <c r="N61" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="O61" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -6037,32 +6037,32 @@
         <v>19</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L62" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6092,26 +6092,26 @@
         <v>21</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="O63" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -6135,19 +6135,19 @@
         <v>19</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>124</v>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6190,26 +6190,26 @@
         <v>21</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L65" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -6239,26 +6239,26 @@
         <v>21</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L66" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="N66" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -6288,7 +6288,7 @@
         <v>21</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>45</v>
@@ -6297,7 +6297,7 @@
         <v>137</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>158</v>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -6343,20 +6343,20 @@
         <v>31</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>133</v>
       </c>
       <c r="N68" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -6386,26 +6386,26 @@
         <v>21</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L69" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O69" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -6435,26 +6435,26 @@
         <v>21</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L70" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="O70" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -6484,26 +6484,26 @@
         <v>21</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L71" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="N71" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -6533,16 +6533,16 @@
         <v>21</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L72" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>193</v>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -6582,26 +6582,26 @@
         <v>21</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L73" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="O73" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -6631,26 +6631,26 @@
         <v>21</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>184</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -6680,26 +6680,26 @@
         <v>21</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L75" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="O75" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -6729,26 +6729,26 @@
         <v>21</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>377</v>
+        <v>839</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>133</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -6778,19 +6778,19 @@
         <v>21</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>169</v>
@@ -6827,26 +6827,26 @@
         <v>21</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -6876,26 +6876,26 @@
         <v>21</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>151</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -6925,26 +6925,26 @@
         <v>21</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6974,26 +6974,26 @@
         <v>21</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="L81" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -7023,13 +7023,13 @@
         <v>21</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>133</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -7072,26 +7072,26 @@
         <v>21</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L83" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="O83" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -7121,26 +7121,26 @@
         <v>21</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>211</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -7176,10 +7176,10 @@
         <v>45</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>61</v>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -7219,26 +7219,26 @@
         <v>98</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L86" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="O86" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -7274,20 +7274,20 @@
         <v>31</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>253</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -7317,26 +7317,26 @@
         <v>98</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>160</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -7372,20 +7372,20 @@
         <v>45</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -7415,26 +7415,26 @@
         <v>21</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L90" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="O90" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -7464,26 +7464,26 @@
         <v>21</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L91" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -7513,26 +7513,26 @@
         <v>21</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>441</v>
+        <v>840</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>157</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -7562,26 +7562,26 @@
         <v>21</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>138</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -7617,20 +7617,20 @@
         <v>31</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -7660,26 +7660,26 @@
         <v>21</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -7709,26 +7709,26 @@
         <v>21</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -7755,29 +7755,29 @@
         <v>20</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>463</v>
+        <v>841</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -7807,26 +7807,26 @@
         <v>98</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -7856,26 +7856,26 @@
         <v>21</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -7905,7 +7905,7 @@
         <v>21</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>37</v>
@@ -7917,14 +7917,14 @@
         <v>210</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -7954,26 +7954,26 @@
         <v>21</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -8003,26 +8003,26 @@
         <v>21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>168</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -8052,26 +8052,26 @@
         <v>21</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -8101,26 +8101,26 @@
         <v>21</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -8150,26 +8150,26 @@
         <v>21</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -8199,26 +8199,26 @@
         <v>21</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -8248,26 +8248,26 @@
         <v>21</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -8297,26 +8297,26 @@
         <v>21</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -8346,26 +8346,26 @@
         <v>21</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>513</v>
+        <v>846</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -8395,26 +8395,26 @@
         <v>21</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -8444,26 +8444,26 @@
         <v>21</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -8487,32 +8487,32 @@
         <v>19</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -8539,7 +8539,7 @@
         <v>20</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>236</v>
@@ -8548,20 +8548,20 @@
         <v>45</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -8591,26 +8591,26 @@
         <v>21</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -8640,26 +8640,26 @@
         <v>21</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>547</v>
+        <v>842</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -8689,26 +8689,26 @@
         <v>21</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>157</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -8738,26 +8738,26 @@
         <v>21</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>554</v>
+        <v>836</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -8787,26 +8787,26 @@
         <v>21</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -8836,26 +8836,26 @@
         <v>21</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>101</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -8891,20 +8891,20 @@
         <v>31</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>103</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -8940,20 +8940,20 @@
         <v>37</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>194</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -8983,26 +8983,26 @@
         <v>21</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -9032,26 +9032,26 @@
         <v>21</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -9081,26 +9081,26 @@
         <v>21</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>226</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -9130,26 +9130,26 @@
         <v>21</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>581</v>
+        <v>843</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>120</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
@@ -9179,13 +9179,13 @@
         <v>21</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>101</v>
@@ -9194,11 +9194,11 @@
         <v>48</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -9228,13 +9228,13 @@
         <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>101</v>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -9277,13 +9277,13 @@
         <v>21</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>157</v>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -9332,20 +9332,20 @@
         <v>37</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -9381,20 +9381,20 @@
         <v>31</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>56</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -9421,29 +9421,29 @@
         <v>20</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -9473,16 +9473,16 @@
         <v>21</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>124</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
@@ -9528,20 +9528,20 @@
         <v>37</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -9568,29 +9568,29 @@
         <v>20</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -9620,26 +9620,26 @@
         <v>21</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
@@ -9666,29 +9666,29 @@
         <v>29</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
@@ -9724,20 +9724,20 @@
         <v>37</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>101</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -9767,26 +9767,26 @@
         <v>21</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -9816,26 +9816,26 @@
         <v>21</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -9865,26 +9865,26 @@
         <v>21</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
@@ -9920,20 +9920,20 @@
         <v>37</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -9963,26 +9963,26 @@
         <v>21</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>648</v>
+        <v>844</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -10018,20 +10018,20 @@
         <v>37</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="2" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>63</v>
@@ -10061,26 +10061,26 @@
         <v>21</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -10110,26 +10110,26 @@
         <v>21</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>107</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -10159,26 +10159,26 @@
         <v>21</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>664</v>
+        <v>845</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" s="2" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -10208,26 +10208,26 @@
         <v>21</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -10257,26 +10257,26 @@
         <v>21</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -10306,26 +10306,26 @@
         <v>21</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -10355,26 +10355,26 @@
         <v>21</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -10404,26 +10404,26 @@
         <v>21</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
@@ -10453,26 +10453,26 @@
         <v>21</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>207</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
@@ -10499,29 +10499,29 @@
         <v>228</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" s="2" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -10548,7 +10548,7 @@
         <v>20</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>122</v>
@@ -10557,20 +10557,20 @@
         <v>45</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" s="2" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -10597,16 +10597,16 @@
         <v>20</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>185</v>
@@ -10615,11 +10615,11 @@
         <v>185</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" s="2" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
@@ -10655,20 +10655,20 @@
         <v>31</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" s="2" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -10698,26 +10698,26 @@
         <v>21</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="2" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -10747,26 +10747,26 @@
         <v>21</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" s="2" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -10796,26 +10796,26 @@
         <v>21</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" s="2" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -10851,16 +10851,16 @@
         <v>37</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" s="2" t="s">
@@ -10894,26 +10894,26 @@
         <v>21</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" s="2" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
@@ -10943,26 +10943,26 @@
         <v>21</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -10989,7 +10989,7 @@
         <v>20</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>117</v>
@@ -10998,20 +10998,20 @@
         <v>37</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="2" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
@@ -11047,20 +11047,20 @@
         <v>31</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
@@ -11096,16 +11096,16 @@
         <v>31</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2" t="s">
@@ -11139,26 +11139,26 @@
         <v>21</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -11185,29 +11185,29 @@
         <v>20</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
@@ -11237,26 +11237,26 @@
         <v>21</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" s="2" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
@@ -11286,26 +11286,26 @@
         <v>21</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
@@ -11335,19 +11335,19 @@
         <v>21</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>132</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>109</v>
@@ -11384,26 +11384,26 @@
         <v>21</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
@@ -11433,26 +11433,26 @@
         <v>21</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
@@ -11482,7 +11482,7 @@
         <v>21</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>31</v>
@@ -11491,7 +11491,7 @@
         <v>48</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N173" s="2" t="s">
         <v>185</v>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
@@ -11531,13 +11531,13 @@
         <v>21</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="M174" s="2" t="s">
         <v>137</v>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -11580,26 +11580,26 @@
         <v>21</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" s="2" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
@@ -11629,26 +11629,26 @@
         <v>21</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>188</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" s="2" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/survey_results_1.xlsx
+++ b/Resources/survey_results_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pam/class/HW/23 Project4 - Veggie/veggie-tales/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0F5191-3D6B-CA4E-91E0-44052E028B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFB972-4A92-7448-BB78-A6E1374F6DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49720" yWindow="-4420" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47000" yWindow="-4460" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,9 +643,6 @@
     <t>Chicago series</t>
   </si>
   <si>
-    <t>Broccoli;Cauliflower;Green Beans;Spinach;Asparagus ;</t>
-  </si>
-  <si>
     <t>Asparagus ;Spinach;Cauliflower;</t>
   </si>
   <si>
@@ -745,9 +742,6 @@
     <t>Corn;Carrots;Lettuce (any kind);</t>
   </si>
   <si>
-    <t>Broccoli;Spinach;Squash;Peas;Asparagus ;</t>
-  </si>
-  <si>
     <t>Squash;Broccoli;Asparagus ;</t>
   </si>
   <si>
@@ -826,9 +820,6 @@
     <t>Station Eleven</t>
   </si>
   <si>
-    <t>Corn;Peas;Carrots;Spinach;Asparagus ;</t>
-  </si>
-  <si>
     <t>Corn;Peas;Broccoli;</t>
   </si>
   <si>
@@ -1387,9 +1378,6 @@
     <t>Schitt’s Creek</t>
   </si>
   <si>
-    <t>Lettuce (any kind);Carrots;Broccoli;Corn;Asparagus ;</t>
-  </si>
-  <si>
     <t>Carrots;Broccoli;Cauliflower;</t>
   </si>
   <si>
@@ -1495,9 +1483,6 @@
     <t xml:space="preserve">Grays Anatomy </t>
   </si>
   <si>
-    <t>Broccoli;Carrots;Corn;Cauliflower;Green Beans;Lettuce (any kind);Spinach;Peas;Asparagus ;</t>
-  </si>
-  <si>
     <t>Boiled;Sauteed;Steamed;</t>
   </si>
   <si>
@@ -2062,9 +2047,6 @@
     <t>I don’t watch TV</t>
   </si>
   <si>
-    <t>Spinach;Squash;Green Beans;Eggplant okra;</t>
-  </si>
-  <si>
     <t>Okra;</t>
   </si>
   <si>
@@ -2542,21 +2524,6 @@
     <t>Carrots;Corn;Green Beans;Lettuce (any kind);Peas;Cucumber; potato;</t>
   </si>
   <si>
-    <t>Broccoli;Cauliflower;Lettuce (any kind);Squash;Asparagus; Brussels sprouts; potatoestoes;</t>
-  </si>
-  <si>
-    <t>Broccoli;Corn;Lettuce (any kind);Onions; tomatoes ;</t>
-  </si>
-  <si>
-    <t>Carrots;Green Beans;Lettuce (any kind);Asparagus; Brussel sprouts;</t>
-  </si>
-  <si>
-    <t>Broccoli;Carrots;Lettuce (any kind);Bell pepper; onions ;</t>
-  </si>
-  <si>
-    <t>Corn;Green Beans;Asparagus; Brussel Sprouts ;Lettuce (any kind);</t>
-  </si>
-  <si>
     <t>Lettuce (any kind);red pepper; cucumber;</t>
   </si>
   <si>
@@ -2567,6 +2534,39 @@
   </si>
   <si>
     <t>Broccoli;Cauliflower;Peas;Bell pepper;Corn;</t>
+  </si>
+  <si>
+    <t>Carrots;Green Beans;Lettuce (any kind);Asparagus;Brussel sprouts;</t>
+  </si>
+  <si>
+    <t>Broccoli;Cauliflower;Lettuce (any kind);Squash;Asparagus;Brussels sprouts; potatoestoes;</t>
+  </si>
+  <si>
+    <t>Spinach;Squash;Green Beans;Eggplant;okra;</t>
+  </si>
+  <si>
+    <t>Broccoli;Cauliflower;Green Beans;Spinach;Asparagus;</t>
+  </si>
+  <si>
+    <t>Broccoli;Spinach;Squash;Peas;Asparagus;</t>
+  </si>
+  <si>
+    <t>Corn;Peas;Carrots;Spinach;Asparagus;</t>
+  </si>
+  <si>
+    <t>Lettuce (any kind);Carrots;Broccoli;Corn;Asparagus;</t>
+  </si>
+  <si>
+    <t>Broccoli;Carrots;Corn;Cauliflower;Green Beans;Lettuce (any kind);Spinach;Peas;Asparagus;</t>
+  </si>
+  <si>
+    <t>Broccoli;Carrots;Lettuce (any kind);Bell pepper;onions ;</t>
+  </si>
+  <si>
+    <t>Corn;Green Beans;Asparagus;Brussel Sprouts ;Lettuce (any kind);</t>
+  </si>
+  <si>
+    <t>Broccoli;Corn;Lettuce (any kind);Onions;tomatoes;</t>
   </si>
 </sst>
 </file>
@@ -3011,14 +3011,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I103" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L113" sqref="L113"/>
+    <sheetView tabSelected="1" topLeftCell="H60" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="67" customWidth="1"/>
+    <col min="12" max="12" width="88" customWidth="1"/>
     <col min="13" max="16" width="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="83.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4775,20 +4775,20 @@
         <v>31</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -4824,20 +4824,20 @@
         <v>31</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -4867,26 +4867,26 @@
         <v>21</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -4922,20 +4922,20 @@
         <v>45</v>
       </c>
       <c r="L39" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -4965,26 +4965,26 @@
         <v>21</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -5008,32 +5008,32 @@
         <v>63</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>120</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -5054,35 +5054,35 @@
         <v>80</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>113</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -5118,20 +5118,20 @@
         <v>37</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -5155,32 +5155,32 @@
         <v>19</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>157</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>62</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -5210,19 +5210,19 @@
         <v>21</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>103</v>
@@ -5265,20 +5265,20 @@
         <v>45</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>133</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -5308,26 +5308,26 @@
         <v>21</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -5357,26 +5357,26 @@
         <v>21</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L48" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="O48" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5406,26 +5406,26 @@
         <v>21</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -5455,26 +5455,26 @@
         <v>21</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>266</v>
+        <v>841</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -5504,26 +5504,26 @@
         <v>21</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L51" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -5553,26 +5553,26 @@
         <v>21</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -5602,13 +5602,13 @@
         <v>21</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>160</v>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -5651,16 +5651,16 @@
         <v>21</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>124</v>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5700,26 +5700,26 @@
         <v>21</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>19</v>
@@ -5749,26 +5749,26 @@
         <v>21</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -5792,32 +5792,32 @@
         <v>63</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5853,20 +5853,20 @@
         <v>45</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>188</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5896,26 +5896,26 @@
         <v>21</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5945,26 +5945,26 @@
         <v>21</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>120</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6000,20 +6000,20 @@
         <v>37</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>133</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -6037,32 +6037,32 @@
         <v>19</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L62" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="O62" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6092,26 +6092,26 @@
         <v>21</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O63" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -6135,19 +6135,19 @@
         <v>19</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>124</v>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6190,26 +6190,26 @@
         <v>21</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -6239,26 +6239,26 @@
         <v>21</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -6288,7 +6288,7 @@
         <v>21</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>45</v>
@@ -6297,7 +6297,7 @@
         <v>137</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>158</v>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -6343,20 +6343,20 @@
         <v>31</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>133</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -6386,26 +6386,26 @@
         <v>21</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -6435,26 +6435,26 @@
         <v>21</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -6484,26 +6484,26 @@
         <v>21</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -6533,16 +6533,16 @@
         <v>21</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>193</v>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -6582,26 +6582,26 @@
         <v>21</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L73" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="O73" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -6631,26 +6631,26 @@
         <v>21</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>184</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -6680,26 +6680,26 @@
         <v>21</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -6729,26 +6729,26 @@
         <v>21</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>133</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -6778,19 +6778,19 @@
         <v>21</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>169</v>
@@ -6827,26 +6827,26 @@
         <v>21</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -6876,26 +6876,26 @@
         <v>21</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>151</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -6925,26 +6925,26 @@
         <v>21</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6974,26 +6974,26 @@
         <v>21</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L81" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -7023,26 +7023,26 @@
         <v>21</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>133</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -7072,26 +7072,26 @@
         <v>21</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L83" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="O83" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -7121,26 +7121,26 @@
         <v>21</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -7176,10 +7176,10 @@
         <v>45</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>61</v>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -7219,26 +7219,26 @@
         <v>98</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L86" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="O86" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -7274,20 +7274,20 @@
         <v>31</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -7317,26 +7317,26 @@
         <v>98</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>160</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -7372,20 +7372,20 @@
         <v>45</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -7415,26 +7415,26 @@
         <v>21</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L90" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="O90" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -7464,26 +7464,26 @@
         <v>21</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L91" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -7513,26 +7513,26 @@
         <v>21</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>157</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -7562,26 +7562,26 @@
         <v>21</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>138</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -7617,20 +7617,20 @@
         <v>31</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -7660,26 +7660,26 @@
         <v>21</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -7709,26 +7709,26 @@
         <v>21</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>453</v>
+        <v>842</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -7755,29 +7755,29 @@
         <v>20</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -7807,26 +7807,26 @@
         <v>98</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -7856,26 +7856,26 @@
         <v>21</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -7905,7 +7905,7 @@
         <v>21</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>37</v>
@@ -7914,17 +7914,17 @@
         <v>38</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -7954,26 +7954,26 @@
         <v>21</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -8003,26 +8003,26 @@
         <v>21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>168</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -8052,26 +8052,26 @@
         <v>21</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -8101,26 +8101,26 @@
         <v>21</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>489</v>
+        <v>843</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -8150,26 +8150,26 @@
         <v>21</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -8199,26 +8199,26 @@
         <v>21</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -8248,26 +8248,26 @@
         <v>21</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -8297,26 +8297,26 @@
         <v>21</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -8346,26 +8346,26 @@
         <v>21</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -8395,26 +8395,26 @@
         <v>21</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -8444,26 +8444,26 @@
         <v>21</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -8487,32 +8487,32 @@
         <v>19</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -8539,29 +8539,29 @@
         <v>20</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -8591,26 +8591,26 @@
         <v>21</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -8640,26 +8640,26 @@
         <v>21</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -8689,26 +8689,26 @@
         <v>21</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>157</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -8738,26 +8738,26 @@
         <v>21</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -8787,26 +8787,26 @@
         <v>21</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -8836,26 +8836,26 @@
         <v>21</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>101</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -8891,20 +8891,20 @@
         <v>31</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>103</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -8940,20 +8940,20 @@
         <v>37</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>194</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -8983,26 +8983,26 @@
         <v>21</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -9032,26 +9032,26 @@
         <v>21</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -9081,26 +9081,26 @@
         <v>21</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -9130,26 +9130,26 @@
         <v>21</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>120</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
@@ -9179,13 +9179,13 @@
         <v>21</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>101</v>
@@ -9194,11 +9194,11 @@
         <v>48</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -9228,13 +9228,13 @@
         <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>101</v>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -9277,13 +9277,13 @@
         <v>21</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>157</v>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -9332,20 +9332,20 @@
         <v>37</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -9381,20 +9381,20 @@
         <v>31</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>56</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -9421,29 +9421,29 @@
         <v>20</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -9473,16 +9473,16 @@
         <v>21</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>124</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
@@ -9528,20 +9528,20 @@
         <v>37</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -9568,29 +9568,29 @@
         <v>20</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -9614,32 +9614,32 @@
         <v>19</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
@@ -9666,29 +9666,29 @@
         <v>29</v>
       </c>
       <c r="I136" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="O136" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
@@ -9724,20 +9724,20 @@
         <v>37</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>101</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -9767,26 +9767,26 @@
         <v>21</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -9816,26 +9816,26 @@
         <v>21</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -9865,26 +9865,26 @@
         <v>21</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
@@ -9920,20 +9920,20 @@
         <v>37</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -9963,26 +9963,26 @@
         <v>21</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -10018,20 +10018,20 @@
         <v>37</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -10049,38 +10049,38 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -10104,32 +10104,32 @@
         <v>19</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>107</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -10153,32 +10153,32 @@
         <v>19</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -10208,26 +10208,26 @@
         <v>21</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -10257,26 +10257,26 @@
         <v>21</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -10306,26 +10306,26 @@
         <v>21</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -10355,26 +10355,26 @@
         <v>21</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -10404,26 +10404,26 @@
         <v>21</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
@@ -10453,26 +10453,26 @@
         <v>21</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>678</v>
+        <v>838</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
@@ -10496,32 +10496,32 @@
         <v>19</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -10548,7 +10548,7 @@
         <v>20</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>122</v>
@@ -10557,20 +10557,20 @@
         <v>45</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -10597,16 +10597,16 @@
         <v>20</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>185</v>
@@ -10615,11 +10615,11 @@
         <v>185</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
@@ -10649,26 +10649,26 @@
         <v>21</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -10698,26 +10698,26 @@
         <v>21</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -10747,26 +10747,26 @@
         <v>21</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" s="2" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -10796,26 +10796,26 @@
         <v>21</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -10845,26 +10845,26 @@
         <v>21</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
@@ -10894,26 +10894,26 @@
         <v>21</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
@@ -10943,26 +10943,26 @@
         <v>21</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -10989,7 +10989,7 @@
         <v>20</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>117</v>
@@ -10998,20 +10998,20 @@
         <v>37</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
@@ -11047,20 +11047,20 @@
         <v>31</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
@@ -11096,16 +11096,16 @@
         <v>31</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2" t="s">
@@ -11133,32 +11133,32 @@
         <v>63</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -11185,29 +11185,29 @@
         <v>20</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
@@ -11237,26 +11237,26 @@
         <v>21</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
@@ -11286,26 +11286,26 @@
         <v>21</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
@@ -11335,19 +11335,19 @@
         <v>21</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>132</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>109</v>
@@ -11384,26 +11384,26 @@
         <v>21</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
@@ -11433,26 +11433,26 @@
         <v>21</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
@@ -11476,13 +11476,13 @@
         <v>63</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>31</v>
@@ -11491,7 +11491,7 @@
         <v>48</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N173" s="2" t="s">
         <v>185</v>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
@@ -11531,13 +11531,13 @@
         <v>21</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="M174" s="2" t="s">
         <v>137</v>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -11580,26 +11580,26 @@
         <v>21</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
@@ -11629,26 +11629,26 @@
         <v>21</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>188</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/survey_results_1.xlsx
+++ b/Resources/survey_results_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pam/class/HW/23 Project4 - Veggie/veggie-tales/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFB972-4A92-7448-BB78-A6E1374F6DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588076B8-82E0-AC40-AA2A-22BB0089E1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47000" yWindow="-4460" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50720" yWindow="-4600" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -796,9 +796,6 @@
     <t>Chicago PD</t>
   </si>
   <si>
-    <t>Corn;Lettuce (any kind);Spinach;Squash;Brussel sprouts ;</t>
-  </si>
-  <si>
     <t>Lettuce (any kind);Spinach;Corn;</t>
   </si>
   <si>
@@ -2563,10 +2560,13 @@
     <t>Broccoli;Carrots;Lettuce (any kind);Bell pepper;onions ;</t>
   </si>
   <si>
-    <t>Corn;Green Beans;Asparagus;Brussel Sprouts ;Lettuce (any kind);</t>
-  </si>
-  <si>
     <t>Broccoli;Corn;Lettuce (any kind);Onions;tomatoes;</t>
+  </si>
+  <si>
+    <t>Corn;Lettuce (any kind);Spinach;Squash;Brussel sprouts;</t>
+  </si>
+  <si>
+    <t>Corn;Green Beans;Asparagus;Brussel Sprouts;Lettuce (any kind);</t>
   </si>
 </sst>
 </file>
@@ -3011,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H60" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G97" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L176"/>
     </sheetView>
   </sheetViews>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>205</v>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -5118,7 +5118,7 @@
         <v>37</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>238</v>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -5363,20 +5363,20 @@
         <v>37</v>
       </c>
       <c r="L48" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>216</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5406,26 +5406,26 @@
         <v>21</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -5455,26 +5455,26 @@
         <v>21</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="M50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -5504,26 +5504,26 @@
         <v>21</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L51" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -5553,26 +5553,26 @@
         <v>21</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -5602,13 +5602,13 @@
         <v>21</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>160</v>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -5651,16 +5651,16 @@
         <v>21</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>124</v>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5700,26 +5700,26 @@
         <v>21</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L55" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -5737,38 +5737,38 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L56" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>237</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -5798,26 +5798,26 @@
         <v>21</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5853,20 +5853,20 @@
         <v>45</v>
       </c>
       <c r="L58" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="N58" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>188</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5896,26 +5896,26 @@
         <v>21</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>243</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>216</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5945,26 +5945,26 @@
         <v>21</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L60" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="N60" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>120</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6000,20 +6000,20 @@
         <v>37</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>133</v>
       </c>
       <c r="N61" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O61" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -6037,32 +6037,32 @@
         <v>19</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L62" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6092,26 +6092,26 @@
         <v>21</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="O63" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -6135,19 +6135,19 @@
         <v>19</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>124</v>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6190,26 +6190,26 @@
         <v>21</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L65" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -6239,26 +6239,26 @@
         <v>21</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L66" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="N66" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -6288,7 +6288,7 @@
         <v>21</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>45</v>
@@ -6297,7 +6297,7 @@
         <v>137</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>158</v>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -6343,20 +6343,20 @@
         <v>31</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>133</v>
       </c>
       <c r="N68" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -6386,26 +6386,26 @@
         <v>21</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L69" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O69" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -6435,26 +6435,26 @@
         <v>21</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L70" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="O70" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -6484,26 +6484,26 @@
         <v>21</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L71" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="N71" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -6533,16 +6533,16 @@
         <v>21</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L72" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>193</v>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -6582,26 +6582,26 @@
         <v>21</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L73" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="O73" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -6631,26 +6631,26 @@
         <v>21</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>184</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -6680,26 +6680,26 @@
         <v>21</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M75" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="N75" s="2" t="s">
+      <c r="O75" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -6729,26 +6729,26 @@
         <v>21</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>133</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -6778,19 +6778,19 @@
         <v>21</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L77" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>169</v>
@@ -6827,26 +6827,26 @@
         <v>21</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -6876,26 +6876,26 @@
         <v>21</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>151</v>
       </c>
       <c r="N79" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -6925,26 +6925,26 @@
         <v>21</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="M80" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6974,26 +6974,26 @@
         <v>21</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="L81" s="2" t="s">
+      <c r="M81" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="M81" s="2" t="s">
+      <c r="N81" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -7023,13 +7023,13 @@
         <v>21</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>133</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -7072,26 +7072,26 @@
         <v>21</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L83" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M83" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="O83" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -7121,26 +7121,26 @@
         <v>21</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M84" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>210</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -7176,10 +7176,10 @@
         <v>45</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>61</v>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -7219,26 +7219,26 @@
         <v>98</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L86" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M86" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="M86" s="2" t="s">
+      <c r="N86" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="O86" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -7274,20 +7274,20 @@
         <v>31</v>
       </c>
       <c r="L87" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M87" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="M87" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="N87" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>251</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -7317,26 +7317,26 @@
         <v>98</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>160</v>
       </c>
       <c r="N88" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="O88" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -7372,20 +7372,20 @@
         <v>45</v>
       </c>
       <c r="L89" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M89" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="M89" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="N89" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -7415,26 +7415,26 @@
         <v>21</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L90" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M90" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="N90" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="O90" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -7464,26 +7464,26 @@
         <v>21</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L91" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="M91" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="N91" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="O91" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -7513,26 +7513,26 @@
         <v>21</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>157</v>
       </c>
       <c r="N92" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="O92" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -7562,26 +7562,26 @@
         <v>21</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>138</v>
       </c>
       <c r="N93" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="O93" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -7617,20 +7617,20 @@
         <v>31</v>
       </c>
       <c r="L94" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="N94" s="2" t="s">
+      <c r="O94" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -7660,26 +7660,26 @@
         <v>21</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L95" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="N95" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -7709,26 +7709,26 @@
         <v>21</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M96" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -7755,29 +7755,29 @@
         <v>20</v>
       </c>
       <c r="I97" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M97" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="O97" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -7807,26 +7807,26 @@
         <v>98</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L98" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M98" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="M98" s="2" t="s">
+      <c r="N98" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -7856,26 +7856,26 @@
         <v>21</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L99" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="M99" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="N99" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -7905,7 +7905,7 @@
         <v>21</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>37</v>
@@ -7917,14 +7917,14 @@
         <v>209</v>
       </c>
       <c r="N100" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O100" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -7954,26 +7954,26 @@
         <v>21</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L101" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="M101" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="N101" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="O101" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -8003,26 +8003,26 @@
         <v>21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>168</v>
       </c>
       <c r="N102" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="O102" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -8052,26 +8052,26 @@
         <v>21</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L103" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N103" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -8101,26 +8101,26 @@
         <v>21</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -8150,26 +8150,26 @@
         <v>21</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L105" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="M105" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="N105" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="N105" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="O105" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -8199,26 +8199,26 @@
         <v>21</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L106" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M106" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="M106" s="2" t="s">
+      <c r="N106" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="O106" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -8248,26 +8248,26 @@
         <v>21</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L107" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="M107" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="M107" s="2" t="s">
+      <c r="N107" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="O107" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -8297,26 +8297,26 @@
         <v>21</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -8346,26 +8346,26 @@
         <v>21</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M109" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="N109" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -8395,26 +8395,26 @@
         <v>21</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L110" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="M110" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="N110" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="O110" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -8444,26 +8444,26 @@
         <v>21</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L111" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="M111" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="M111" s="2" t="s">
+      <c r="N111" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="N111" s="2" t="s">
+      <c r="O111" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -8487,32 +8487,32 @@
         <v>19</v>
       </c>
       <c r="H112" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="J112" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L112" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="M112" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="M112" s="2" t="s">
+      <c r="N112" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="O112" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -8539,7 +8539,7 @@
         <v>20</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>235</v>
@@ -8548,20 +8548,20 @@
         <v>45</v>
       </c>
       <c r="L113" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="M113" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="M113" s="2" t="s">
+      <c r="N113" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -8591,26 +8591,26 @@
         <v>21</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N114" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="O114" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -8640,26 +8640,26 @@
         <v>21</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M115" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="N115" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="N115" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="O115" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -8689,26 +8689,26 @@
         <v>21</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L116" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="M116" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>157</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -8738,26 +8738,26 @@
         <v>21</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M117" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="N117" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -8787,26 +8787,26 @@
         <v>21</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -8836,26 +8836,26 @@
         <v>21</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>101</v>
       </c>
       <c r="N119" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="O119" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -8891,20 +8891,20 @@
         <v>31</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>103</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -8940,20 +8940,20 @@
         <v>37</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>194</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -8983,26 +8983,26 @@
         <v>21</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L122" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="M122" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="M122" s="2" t="s">
+      <c r="N122" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="O122" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -9032,26 +9032,26 @@
         <v>21</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L123" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="M123" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="M123" s="2" t="s">
+      <c r="N123" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="N123" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="O123" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -9081,26 +9081,26 @@
         <v>21</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>225</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -9130,26 +9130,26 @@
         <v>21</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>120</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
@@ -9179,13 +9179,13 @@
         <v>21</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>101</v>
@@ -9194,11 +9194,11 @@
         <v>48</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -9228,13 +9228,13 @@
         <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>101</v>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -9277,13 +9277,13 @@
         <v>21</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>157</v>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -9332,20 +9332,20 @@
         <v>37</v>
       </c>
       <c r="L129" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="M129" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="M129" s="2" t="s">
+      <c r="N129" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="O129" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -9381,20 +9381,20 @@
         <v>31</v>
       </c>
       <c r="L130" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="M130" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="M130" s="2" t="s">
+      <c r="N130" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>56</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -9421,29 +9421,29 @@
         <v>20</v>
       </c>
       <c r="I131" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="J131" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L131" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="M131" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="M131" s="2" t="s">
+      <c r="N131" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="N131" s="2" t="s">
+      <c r="O131" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -9473,16 +9473,16 @@
         <v>21</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>124</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
@@ -9528,20 +9528,20 @@
         <v>37</v>
       </c>
       <c r="L133" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N133" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="N133" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -9568,29 +9568,29 @@
         <v>20</v>
       </c>
       <c r="I134" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="J134" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L134" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="N134" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="M134" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="N134" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="O134" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -9620,26 +9620,26 @@
         <v>21</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N135" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="O135" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
@@ -9666,29 +9666,29 @@
         <v>29</v>
       </c>
       <c r="I136" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="J136" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="K136" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L136" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="K136" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="L136" s="2" t="s">
+      <c r="M136" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="N136" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="O136" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
@@ -9724,20 +9724,20 @@
         <v>37</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>101</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -9767,26 +9767,26 @@
         <v>21</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -9816,26 +9816,26 @@
         <v>21</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L139" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="M139" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="M139" s="2" t="s">
+      <c r="N139" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -9865,26 +9865,26 @@
         <v>21</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L140" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="M140" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="M140" s="2" t="s">
+      <c r="N140" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="N140" s="2" t="s">
+      <c r="O140" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
@@ -9920,20 +9920,20 @@
         <v>37</v>
       </c>
       <c r="L141" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="M141" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="M141" s="2" t="s">
+      <c r="N141" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="N141" s="2" t="s">
+      <c r="O141" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -9963,26 +9963,26 @@
         <v>21</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M142" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="N142" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -10018,20 +10018,20 @@
         <v>37</v>
       </c>
       <c r="L143" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="M143" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="M143" s="2" t="s">
+      <c r="N143" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="O143" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="O143" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>63</v>
@@ -10061,26 +10061,26 @@
         <v>21</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L144" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="M144" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="M144" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="N144" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -10110,26 +10110,26 @@
         <v>21</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>107</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -10159,26 +10159,26 @@
         <v>21</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="M146" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="O146" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -10208,26 +10208,26 @@
         <v>21</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L147" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="O147" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -10257,26 +10257,26 @@
         <v>21</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L148" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="M148" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="M148" s="2" t="s">
+      <c r="N148" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="N148" s="2" t="s">
+      <c r="O148" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="O148" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -10306,26 +10306,26 @@
         <v>21</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -10355,26 +10355,26 @@
         <v>21</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L150" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="M150" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="N150" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="O150" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="O150" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -10404,26 +10404,26 @@
         <v>21</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L151" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="M151" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="M151" s="2" t="s">
-        <v>670</v>
-      </c>
       <c r="N151" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
@@ -10453,26 +10453,26 @@
         <v>21</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>206</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
@@ -10499,29 +10499,29 @@
         <v>227</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L153" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="M153" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="M153" s="2" t="s">
+      <c r="N153" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="N153" s="2" t="s">
-        <v>677</v>
-      </c>
       <c r="O153" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -10548,7 +10548,7 @@
         <v>20</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>122</v>
@@ -10557,20 +10557,20 @@
         <v>45</v>
       </c>
       <c r="L154" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="N154" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="M154" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="N154" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -10597,16 +10597,16 @@
         <v>20</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>185</v>
@@ -10615,11 +10615,11 @@
         <v>185</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
@@ -10655,20 +10655,20 @@
         <v>31</v>
       </c>
       <c r="L156" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="N156" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="M156" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="N156" s="2" t="s">
+      <c r="O156" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="O156" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -10698,26 +10698,26 @@
         <v>21</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L157" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N157" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="M157" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N157" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -10747,26 +10747,26 @@
         <v>21</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L158" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N158" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="M158" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="N158" s="2" t="s">
+      <c r="O158" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="O158" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -10796,26 +10796,26 @@
         <v>21</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L159" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N159" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="M159" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="N159" s="2" t="s">
-        <v>699</v>
-      </c>
       <c r="O159" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -10851,16 +10851,16 @@
         <v>37</v>
       </c>
       <c r="L160" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="M160" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="M160" s="2" t="s">
+      <c r="N160" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O160" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="N160" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="O160" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" s="2" t="s">
@@ -10894,26 +10894,26 @@
         <v>21</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
@@ -10943,26 +10943,26 @@
         <v>21</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L162" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="M162" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="M162" s="2" t="s">
+      <c r="N162" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="N162" s="2" t="s">
+      <c r="O162" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="O162" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -10989,7 +10989,7 @@
         <v>20</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>117</v>
@@ -10998,20 +10998,20 @@
         <v>37</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
@@ -11047,20 +11047,20 @@
         <v>31</v>
       </c>
       <c r="L164" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="M164" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="M164" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
@@ -11096,16 +11096,16 @@
         <v>31</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N165" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="O165" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="O165" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2" t="s">
@@ -11139,26 +11139,26 @@
         <v>21</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L166" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="M166" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="M166" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="N166" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -11185,29 +11185,29 @@
         <v>20</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L167" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="M167" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="N167" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="N167" s="2" t="s">
+      <c r="O167" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="O167" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
@@ -11237,26 +11237,26 @@
         <v>21</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L168" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="M168" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="M168" s="2" t="s">
+      <c r="N168" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="N168" s="2" t="s">
-        <v>737</v>
-      </c>
       <c r="O168" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
@@ -11286,26 +11286,26 @@
         <v>21</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N169" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="O169" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="O169" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
@@ -11335,19 +11335,19 @@
         <v>21</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>132</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>109</v>
@@ -11384,26 +11384,26 @@
         <v>21</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L171" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="M171" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="M171" s="2" t="s">
+      <c r="N171" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="N171" s="2" t="s">
+      <c r="O171" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
@@ -11433,26 +11433,26 @@
         <v>21</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L172" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="M172" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="M172" s="2" t="s">
-        <v>753</v>
-      </c>
       <c r="N172" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
@@ -11482,7 +11482,7 @@
         <v>21</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>31</v>
@@ -11491,7 +11491,7 @@
         <v>48</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N173" s="2" t="s">
         <v>185</v>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
@@ -11531,13 +11531,13 @@
         <v>21</v>
       </c>
       <c r="J174" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L174" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="K174" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="L174" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="M174" s="2" t="s">
         <v>137</v>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -11580,26 +11580,26 @@
         <v>21</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L175" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="M175" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="M175" s="2" t="s">
-        <v>760</v>
-      </c>
       <c r="N175" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
@@ -11629,26 +11629,26 @@
         <v>21</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L176" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="M176" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="M176" s="2" t="s">
+      <c r="N176" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="N176" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>188</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/survey_results_1.xlsx
+++ b/Resources/survey_results_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pam/class/HW/23 Project4 - Veggie/veggie-tales/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588076B8-82E0-AC40-AA2A-22BB0089E1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB53BA1-1BF2-0440-97D5-0D474B291B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50720" yWindow="-4600" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50700" yWindow="-4600" windowWidth="36980" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="846">
   <si>
     <t>ID</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Top Chef</t>
   </si>
   <si>
-    <t>Lettuce (any kind);Spinach;Tomato ;</t>
-  </si>
-  <si>
     <t>Lettuce (any kind);Spinach;Tomato;</t>
   </si>
   <si>
@@ -1588,9 +1585,6 @@
     <t>Housewives</t>
   </si>
   <si>
-    <t>Cauliflower;Lettuce (any kind);Carrots;Squash;Tomato ;</t>
-  </si>
-  <si>
     <t>Lettuce (any kind);Cauliflower;Tomato;</t>
   </si>
   <si>
@@ -2567,6 +2561,9 @@
   </si>
   <si>
     <t>Corn;Green Beans;Asparagus;Brussel Sprouts;Lettuce (any kind);</t>
+  </si>
+  <si>
+    <t>Cauliflower;Lettuce (any kind);Carrots;Squash;Tomato;</t>
   </si>
 </sst>
 </file>
@@ -3011,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G97" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L176"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L14" sqref="L2:L176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3122,7 +3119,7 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3171,7 +3168,7 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3367,7 +3364,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3465,7 +3462,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3563,7 +3560,7 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3612,7 +3609,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3700,17 +3697,17 @@
         <v>95</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3737,29 +3734,29 @@
         <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -3789,26 +3786,26 @@
         <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="21" x14ac:dyDescent="0.25">
@@ -3838,26 +3835,26 @@
         <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -3887,26 +3884,26 @@
         <v>21</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -3936,26 +3933,26 @@
         <v>21</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="N19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -3985,26 +3982,26 @@
         <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="O20" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -4028,32 +4025,32 @@
         <v>19</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="O21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -4083,26 +4080,26 @@
         <v>21</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -4126,32 +4123,32 @@
         <v>63</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -4175,32 +4172,32 @@
         <v>19</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -4230,26 +4227,26 @@
         <v>21</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -4285,20 +4282,20 @@
         <v>31</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -4328,26 +4325,26 @@
         <v>21</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4377,26 +4374,26 @@
         <v>21</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -4426,26 +4423,26 @@
         <v>21</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4475,26 +4472,26 @@
         <v>21</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4524,26 +4521,26 @@
         <v>21</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4573,26 +4570,26 @@
         <v>21</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -4622,26 +4619,26 @@
         <v>21</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -4671,26 +4668,26 @@
         <v>21</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -4720,26 +4717,26 @@
         <v>21</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -4769,26 +4766,26 @@
         <v>21</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -4824,20 +4821,20 @@
         <v>31</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -4867,26 +4864,26 @@
         <v>21</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -4916,26 +4913,26 @@
         <v>21</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L39" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -4965,26 +4962,26 @@
         <v>21</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -5008,32 +5005,32 @@
         <v>63</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="O41" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -5054,35 +5051,35 @@
         <v>80</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -5118,20 +5115,20 @@
         <v>37</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="M43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -5155,32 +5152,32 @@
         <v>19</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>62</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -5210,26 +5207,26 @@
         <v>21</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L45" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="O45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -5265,20 +5262,20 @@
         <v>45</v>
       </c>
       <c r="L46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="N46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -5308,26 +5305,26 @@
         <v>21</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -5357,26 +5354,26 @@
         <v>21</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="M48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="O48" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5406,26 +5403,26 @@
         <v>21</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="O49" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -5455,26 +5452,26 @@
         <v>21</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="M50" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -5504,26 +5501,26 @@
         <v>21</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L51" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -5553,26 +5550,26 @@
         <v>21</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -5602,26 +5599,26 @@
         <v>21</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>48</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -5651,26 +5648,26 @@
         <v>21</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5700,26 +5697,26 @@
         <v>21</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L55" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -5737,38 +5734,38 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L56" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="N56" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -5792,32 +5789,32 @@
         <v>63</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5847,26 +5844,26 @@
         <v>21</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L58" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="N58" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="N58" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="O58" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5896,26 +5893,26 @@
         <v>21</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L59" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N59" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="O59" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5945,26 +5942,26 @@
         <v>21</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L60" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="N60" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="N60" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="O60" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6000,20 +5997,20 @@
         <v>37</v>
       </c>
       <c r="L61" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N61" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N61" s="2" t="s">
+      <c r="O61" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -6037,32 +6034,32 @@
         <v>19</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L62" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6092,26 +6089,26 @@
         <v>21</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="O63" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -6135,32 +6132,32 @@
         <v>19</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6190,26 +6187,26 @@
         <v>21</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L65" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="N65" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="O65" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -6239,26 +6236,26 @@
         <v>21</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L66" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="N66" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -6288,26 +6285,26 @@
         <v>21</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -6334,29 +6331,29 @@
         <v>20</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L68" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N68" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="M68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N68" s="2" t="s">
+      <c r="O68" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -6386,26 +6383,26 @@
         <v>21</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L69" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O69" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -6435,26 +6432,26 @@
         <v>21</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L70" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="O70" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -6484,26 +6481,26 @@
         <v>21</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L71" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="N71" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -6533,26 +6530,26 @@
         <v>21</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L72" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M72" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="N72" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -6582,26 +6579,26 @@
         <v>21</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L73" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="O73" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -6631,26 +6628,26 @@
         <v>21</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L74" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -6680,26 +6677,26 @@
         <v>21</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="M75" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="N75" s="2" t="s">
+      <c r="O75" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -6729,26 +6726,26 @@
         <v>21</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="M76" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O76" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -6778,26 +6775,26 @@
         <v>21</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L77" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="O77" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -6827,26 +6824,26 @@
         <v>21</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -6876,26 +6873,26 @@
         <v>21</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L79" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N79" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="M79" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="N79" s="2" t="s">
+      <c r="O79" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -6925,26 +6922,26 @@
         <v>21</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="M80" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6974,26 +6971,26 @@
         <v>21</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="L81" s="2" t="s">
+      <c r="M81" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="M81" s="2" t="s">
+      <c r="N81" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -7023,26 +7020,26 @@
         <v>21</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>68</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -7072,26 +7069,26 @@
         <v>21</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L83" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M83" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="O83" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -7121,26 +7118,26 @@
         <v>21</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L84" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="M84" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="N84" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -7176,20 +7173,20 @@
         <v>45</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -7216,29 +7213,29 @@
         <v>20</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L86" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M86" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="M86" s="2" t="s">
+      <c r="N86" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="O86" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -7274,20 +7271,20 @@
         <v>31</v>
       </c>
       <c r="L87" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M87" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="M87" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="N87" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -7314,29 +7311,29 @@
         <v>20</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L88" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N88" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="M88" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N88" s="2" t="s">
+      <c r="O88" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -7372,20 +7369,20 @@
         <v>45</v>
       </c>
       <c r="L89" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M89" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="M89" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="N89" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -7415,26 +7412,26 @@
         <v>21</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L90" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M90" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="N90" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="O90" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -7464,26 +7461,26 @@
         <v>21</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L91" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M91" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="N91" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="O91" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -7513,26 +7510,26 @@
         <v>21</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N92" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="O92" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -7562,26 +7559,26 @@
         <v>21</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L93" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="M93" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N93" s="2" t="s">
+      <c r="O93" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -7617,20 +7614,20 @@
         <v>31</v>
       </c>
       <c r="L94" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="N94" s="2" t="s">
+      <c r="O94" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -7660,26 +7657,26 @@
         <v>21</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L95" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="N95" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="N95" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="O95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -7709,26 +7706,26 @@
         <v>21</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="M96" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -7755,29 +7752,29 @@
         <v>20</v>
       </c>
       <c r="I97" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="M97" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="O97" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -7804,29 +7801,29 @@
         <v>20</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L98" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="M98" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="M98" s="2" t="s">
+      <c r="N98" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="N98" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="O98" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -7856,26 +7853,26 @@
         <v>21</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L99" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M99" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="N99" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="N99" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="O99" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -7905,7 +7902,7 @@
         <v>21</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>37</v>
@@ -7914,17 +7911,17 @@
         <v>38</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N100" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="O100" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -7954,26 +7951,26 @@
         <v>21</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L101" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="M101" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="N101" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="O101" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -8003,26 +8000,26 @@
         <v>21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L102" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N102" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="M102" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="N102" s="2" t="s">
+      <c r="O102" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -8052,26 +8049,26 @@
         <v>21</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L103" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N103" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="M103" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="O103" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -8101,26 +8098,26 @@
         <v>21</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -8150,26 +8147,26 @@
         <v>21</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L105" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="M105" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="N105" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="N105" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="O105" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -8199,26 +8196,26 @@
         <v>21</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L106" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="M106" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="M106" s="2" t="s">
+      <c r="N106" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="O106" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -8248,26 +8245,26 @@
         <v>21</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L107" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="M107" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="M107" s="2" t="s">
+      <c r="N107" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="O107" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -8297,26 +8294,26 @@
         <v>21</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -8346,26 +8343,26 @@
         <v>21</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="M109" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="N109" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -8395,26 +8392,26 @@
         <v>21</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L110" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="M110" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="N110" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="O110" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -8444,26 +8441,26 @@
         <v>21</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L111" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="M111" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="M111" s="2" t="s">
+      <c r="N111" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="N111" s="2" t="s">
+      <c r="O111" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -8487,32 +8484,32 @@
         <v>19</v>
       </c>
       <c r="H112" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="J112" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L112" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="N112" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="M112" s="2" t="s">
+      <c r="O112" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -8539,29 +8536,29 @@
         <v>20</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L113" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="N113" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -8591,26 +8588,26 @@
         <v>21</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -8640,26 +8637,26 @@
         <v>21</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -8689,26 +8686,26 @@
         <v>21</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L116" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O116" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -8738,26 +8735,26 @@
         <v>21</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -8787,26 +8784,26 @@
         <v>21</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -8830,32 +8827,32 @@
         <v>19</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L119" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="O119" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -8885,26 +8882,26 @@
         <v>21</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -8940,20 +8937,20 @@
         <v>37</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -8983,26 +8980,26 @@
         <v>21</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L122" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="O122" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -9032,26 +9029,26 @@
         <v>21</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L123" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="N123" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="M123" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="O123" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -9081,26 +9078,26 @@
         <v>21</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -9130,26 +9127,26 @@
         <v>21</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
@@ -9179,26 +9176,26 @@
         <v>21</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>48</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -9228,16 +9225,16 @@
         <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>40</v>
@@ -9247,7 +9244,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -9277,16 +9274,16 @@
         <v>21</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>39</v>
@@ -9296,7 +9293,7 @@
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -9332,20 +9329,20 @@
         <v>37</v>
       </c>
       <c r="L129" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O129" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -9381,20 +9378,20 @@
         <v>31</v>
       </c>
       <c r="L130" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="N130" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>56</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -9421,29 +9418,29 @@
         <v>20</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L131" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="N131" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="M131" s="2" t="s">
+      <c r="O131" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -9473,26 +9470,26 @@
         <v>21</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
@@ -9522,26 +9519,26 @@
         <v>21</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -9568,29 +9565,29 @@
         <v>20</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -9614,32 +9611,32 @@
         <v>19</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
@@ -9666,29 +9663,29 @@
         <v>29</v>
       </c>
       <c r="I136" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L136" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="M136" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="K136" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="L136" s="2" t="s">
+      <c r="N136" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="O136" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
@@ -9724,20 +9721,20 @@
         <v>37</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -9767,26 +9764,26 @@
         <v>21</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -9816,26 +9813,26 @@
         <v>21</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L139" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="N139" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="M139" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>621</v>
-      </c>
       <c r="O139" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -9865,26 +9862,26 @@
         <v>21</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L140" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N140" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="M140" s="2" t="s">
+      <c r="O140" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="N140" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
@@ -9914,26 +9911,26 @@
         <v>21</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L141" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="N141" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="M141" s="2" t="s">
+      <c r="O141" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="N141" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -9963,26 +9960,26 @@
         <v>21</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -10012,26 +10009,26 @@
         <v>21</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L143" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="O143" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="O143" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -10049,38 +10046,38 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -10104,32 +10101,32 @@
         <v>19</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -10153,32 +10150,32 @@
         <v>19</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -10208,26 +10205,26 @@
         <v>21</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -10257,26 +10254,26 @@
         <v>21</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L148" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="N148" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="M148" s="2" t="s">
+      <c r="O148" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="N148" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="O148" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -10306,26 +10303,26 @@
         <v>21</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -10355,26 +10352,26 @@
         <v>21</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L150" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="O150" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="M150" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="O150" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -10404,26 +10401,26 @@
         <v>21</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
@@ -10453,26 +10450,26 @@
         <v>21</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
@@ -10496,32 +10493,32 @@
         <v>19</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L153" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="N153" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="M153" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="N153" s="2" t="s">
-        <v>676</v>
-      </c>
       <c r="O153" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -10548,29 +10545,29 @@
         <v>20</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -10597,29 +10594,29 @@
         <v>20</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
@@ -10649,26 +10646,26 @@
         <v>21</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L156" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="O156" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="M156" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="O156" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -10698,26 +10695,26 @@
         <v>21</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -10747,26 +10744,26 @@
         <v>21</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L158" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="O158" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="M158" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="N158" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="O158" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -10796,26 +10793,26 @@
         <v>21</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -10845,26 +10842,26 @@
         <v>21</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L160" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O160" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="M160" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="N160" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O160" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
@@ -10894,26 +10891,26 @@
         <v>21</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
@@ -10943,26 +10940,26 @@
         <v>21</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L162" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="N162" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="M162" s="2" t="s">
+      <c r="O162" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="N162" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="O162" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -10989,29 +10986,29 @@
         <v>20</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
@@ -11047,20 +11044,20 @@
         <v>31</v>
       </c>
       <c r="L164" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="N164" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O164" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="M164" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="N164" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O164" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
@@ -11090,26 +11087,26 @@
         <v>21</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
@@ -11133,32 +11130,32 @@
         <v>63</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -11185,29 +11182,29 @@
         <v>20</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L167" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="N167" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="O167" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="N167" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="O167" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
@@ -11237,26 +11234,26 @@
         <v>21</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L168" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="N168" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="M168" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="N168" s="2" t="s">
-        <v>736</v>
-      </c>
       <c r="O168" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
@@ -11286,26 +11283,26 @@
         <v>21</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
@@ -11335,26 +11332,26 @@
         <v>21</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
@@ -11384,26 +11381,26 @@
         <v>21</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L171" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="N171" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="M171" s="2" t="s">
+      <c r="O171" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="N171" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
@@ -11433,26 +11430,26 @@
         <v>21</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>74</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
@@ -11476,13 +11473,13 @@
         <v>63</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>31</v>
@@ -11491,17 +11488,17 @@
         <v>48</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
@@ -11531,26 +11528,26 @@
         <v>21</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -11580,26 +11577,26 @@
         <v>21</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
@@ -11629,26 +11626,26 @@
         <v>21</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L176" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="N176" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="M176" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="N176" s="2" t="s">
-        <v>763</v>
-      </c>
       <c r="O176" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
